--- a/Data source/Risposte_unificate.xlsx
+++ b/Data source/Risposte_unificate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\Projects\Bike2Work\Data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C159C-3AC2-4AE5-A45E-1E83BA7C6071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A88CEA1-A788-42AA-B056-6BD7A4C9C55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="372">
   <si>
     <t>Informazioni cronologiche</t>
   </si>
@@ -616,6 +616,12 @@
     <t>Se gli orari dei mezzi pubblici fossero compatibili con le mie esigenze, Se ci fossero linee che mi portano a destinazione, Se la fermata di arrivo fosse più vicina alla mia sede di lavoro</t>
   </si>
   <si>
+    <t>Se ci fossero maggiori informazioni sui servizi / linee di trasporto pubblico</t>
+  </si>
+  <si>
+    <t>Se gli orari dei mezzi pubblici fossero compatibili con le mie esigenze, Se ci fossero linee che mi portano a destinazione, Se la fermata fosse più vicina a casa mia, Se il mezzo pubblico fosse più puntuale, Se dovessi pagare la sosta per l'automobile</t>
+  </si>
+  <si>
     <t>Se ci fossero migliori e più sicure piste ciclabili o percorsi pedonali</t>
   </si>
   <si>
@@ -653,6 +659,12 @@
   </si>
   <si>
     <t>Se abitassi più vicino al posto di lavoro, Se ci fossero migliori e più sicure piste ciclabili o percorsi pedonali</t>
+  </si>
+  <si>
+    <t>Se ci fossero bici pubbliche gratuite</t>
+  </si>
+  <si>
+    <t>Se per gli spostamenti di lavoro si potessero usare mezzi forniti dall'Amministrazione</t>
   </si>
   <si>
     <t>Se la fermata di arrivo fosse più vicina alla mia sede di lavoro</t>
@@ -792,6 +804,18 @@
     <t>nn</t>
   </si>
   <si>
+    <t>Per evitare l'uso dell' automobile,ci dovrebbero essere più mezzi pubblici in ogni orario per riuscire ad arrivare al lavoro,inoltre se mi sposto col mezzo pubblico,dalla stazione di Lugo non c'è nessun mezzo pubblico che mi porta alla mia sede di lavoro.</t>
+  </si>
+  <si>
+    <t>Più rastrelliere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Più posti biciclette in caserma </t>
+  </si>
+  <si>
+    <t>Amplierei la zona parcheggio bici.</t>
+  </si>
+  <si>
     <t>Economicità, Possibilità di rilassarsi durante il viaggio, Collegamento diretto (non bisogna cambiare mezzo di trasporto), Orario delle corse coincidente con le mie esigenze, Rispetto dell'ambiente</t>
   </si>
   <si>
@@ -915,6 +939,9 @@
     <t>Economicità, Rispetto dell'ambiente, Muovermi rapidamente, Si parcheggia nelle immediate vicinanze del luogo di destinazione, Maggior libertà negli spostamenti giornalieri</t>
   </si>
   <si>
+    <t>Economicità, Rispetto dell'ambiente, Muovermi rapidamente, Maggior libertà negli spostamenti giornalieri, Abitudine</t>
+  </si>
+  <si>
     <t>Comodità del viaggio, Si impiega meno tempo</t>
   </si>
   <si>
@@ -1099,6 +1126,9 @@
   </si>
   <si>
     <t>Gli orari dei mezzi pubblici non sono compatibili con le mie esigenze, Il mezzo pubblico è scomodo o troppo affollato, Il mezzo pubblico è sporco / non mi piace, Non sono informato sui servizi / sulle linee di trasporto pubblico, Il mezzo pubblico non è puntuale / ci mette troppo tempo, In auto sono più comodo / ci metto meno tempo</t>
+  </si>
+  <si>
+    <t>Gli orari dei mezzi pubblici non sono compatibili con le mie esigenze, Non c'è una linea diretta / sono costretto a cambiare mezzo, La fermata di arrivo è troppo lontana dalla mia destinazione, Il mezzo pubblico non è puntuale / ci mette troppo tempo, In auto sono più comodo / ci metto meno tempo</t>
   </si>
   <si>
     <t>Si in ogni caso</t>
@@ -1479,9 +1509,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR122"/>
+  <dimension ref="A1:AR130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
@@ -1683,28 +1713,28 @@
         <v>169</v>
       </c>
       <c r="AF2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AH2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO2" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP2" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR2">
         <v>3</v>
@@ -1772,25 +1802,25 @@
         <v>170</v>
       </c>
       <c r="AF3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AN3" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO3" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AQ3" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR3">
         <v>2</v>
@@ -1858,25 +1888,25 @@
         <v>171</v>
       </c>
       <c r="AF4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AN4" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO4" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AQ4" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR4">
         <v>4</v>
@@ -1941,7 +1971,7 @@
         <v>167</v>
       </c>
       <c r="AK5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AL5">
         <v>4</v>
@@ -2009,7 +2039,7 @@
         <v>167</v>
       </c>
       <c r="AK6" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AL6">
         <v>2</v>
@@ -2080,10 +2110,10 @@
         <v>167</v>
       </c>
       <c r="AH7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AK7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AL7">
         <v>4</v>
@@ -2154,25 +2184,25 @@
         <v>172</v>
       </c>
       <c r="AF8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AM8" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AN8" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO8" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP8" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AQ8" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR8">
         <v>3</v>
@@ -2237,7 +2267,7 @@
         <v>167</v>
       </c>
       <c r="AK9" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AL9">
         <v>4</v>
@@ -2305,7 +2335,7 @@
         <v>167</v>
       </c>
       <c r="AK10" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AL10">
         <v>3</v>
@@ -2370,13 +2400,13 @@
         <v>167</v>
       </c>
       <c r="AK11" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AL11">
         <v>4</v>
       </c>
       <c r="AM11" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="AR11">
         <v>4</v>
@@ -2438,13 +2468,13 @@
         <v>167</v>
       </c>
       <c r="AH12" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AJ12" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AK12" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AL12">
         <v>3</v>
@@ -2515,28 +2545,28 @@
         <v>173</v>
       </c>
       <c r="AF13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AH13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AM13" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AN13" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO13" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP13" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ13" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR13">
         <v>3</v>
@@ -2601,28 +2631,28 @@
         <v>169</v>
       </c>
       <c r="AF14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH14" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AM14" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="AN14" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO14" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP14" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ14" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR14">
         <v>3</v>
@@ -2687,25 +2717,25 @@
         <v>169</v>
       </c>
       <c r="AF15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AM15" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN15" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AO15" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP15" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AQ15" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR15">
         <v>1</v>
@@ -2770,25 +2800,25 @@
         <v>169</v>
       </c>
       <c r="AF16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG16" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM16" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AN16" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO16" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP16" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ16" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR16">
         <v>2</v>
@@ -2853,25 +2883,25 @@
         <v>174</v>
       </c>
       <c r="AF17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN17" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO17" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP17" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ17" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR17">
         <v>1</v>
@@ -2936,25 +2966,25 @@
         <v>167</v>
       </c>
       <c r="AK18" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AN18" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO18" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP18" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AQ18" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR18">
         <v>2</v>
@@ -3019,25 +3049,25 @@
         <v>175</v>
       </c>
       <c r="AF19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN19" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AO19" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP19" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ19" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR19">
         <v>1</v>
@@ -3102,25 +3132,25 @@
         <v>169</v>
       </c>
       <c r="AF20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AN20" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO20" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP20" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ20" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR20">
         <v>2</v>
@@ -3185,28 +3215,28 @@
         <v>176</v>
       </c>
       <c r="AF21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AH21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AN21" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO21" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP21" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ21" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR21">
         <v>3</v>
@@ -3271,28 +3301,28 @@
         <v>177</v>
       </c>
       <c r="AF22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AH22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AN22" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO22" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP22" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AQ22" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR22">
         <v>4</v>
@@ -3357,25 +3387,25 @@
         <v>178</v>
       </c>
       <c r="AF23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AN23" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO23" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP23" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ23" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -3440,25 +3470,25 @@
         <v>169</v>
       </c>
       <c r="AF24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG24" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM24" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN24" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO24" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP24" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AQ24" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR24">
         <v>4</v>
@@ -3523,25 +3553,25 @@
         <v>179</v>
       </c>
       <c r="AF25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG25" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AN25" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO25" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP25" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AQ25" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR25">
         <v>3</v>
@@ -3606,13 +3636,13 @@
         <v>167</v>
       </c>
       <c r="AK26" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AL26">
         <v>2</v>
       </c>
       <c r="AM26" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AR26">
         <v>3</v>
@@ -3677,25 +3707,25 @@
         <v>169</v>
       </c>
       <c r="AF27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM27" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN27" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AO27" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP27" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ27" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR27">
         <v>3</v>
@@ -3763,25 +3793,25 @@
         <v>169</v>
       </c>
       <c r="AF28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG28" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AM28" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AN28" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO28" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP28" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ28" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR28">
         <v>3</v>
@@ -3846,25 +3876,25 @@
         <v>169</v>
       </c>
       <c r="AF29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM29" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN29" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO29" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP29" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ29" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR29">
         <v>3</v>
@@ -3932,28 +3962,28 @@
         <v>180</v>
       </c>
       <c r="AF30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG30" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH30" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AM30" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN30" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AO30" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP30" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AQ30" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR30">
         <v>3</v>
@@ -4021,25 +4051,25 @@
         <v>169</v>
       </c>
       <c r="AF31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM31" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AN31" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO31" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP31" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ31" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR31">
         <v>4</v>
@@ -4107,25 +4137,25 @@
         <v>169</v>
       </c>
       <c r="AF32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG32" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM32" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO32" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP32" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ32" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR32">
         <v>4</v>
@@ -4190,10 +4220,10 @@
         <v>167</v>
       </c>
       <c r="AH33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AK33" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AL33">
         <v>3</v>
@@ -4261,7 +4291,7 @@
         <v>167</v>
       </c>
       <c r="AK34" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AL34">
         <v>2</v>
@@ -4326,25 +4356,25 @@
         <v>167</v>
       </c>
       <c r="AK35" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO35" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP35" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AQ35" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR35">
         <v>4</v>
@@ -4409,13 +4439,13 @@
         <v>167</v>
       </c>
       <c r="AK36" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AL36">
         <v>3</v>
       </c>
       <c r="AM36" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AR36">
         <v>4</v>
@@ -4480,10 +4510,10 @@
         <v>167</v>
       </c>
       <c r="AH37" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AK37" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AL37">
         <v>3</v>
@@ -4613,28 +4643,28 @@
         <v>181</v>
       </c>
       <c r="AF39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG39" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AH39" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AM39" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AN39" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO39" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP39" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AQ39" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR39">
         <v>3</v>
@@ -4758,25 +4788,25 @@
         <v>167</v>
       </c>
       <c r="AK41" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AL41">
         <v>3</v>
       </c>
       <c r="AM41" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AN41" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO41" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP41" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AQ41" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR41">
         <v>3</v>
@@ -4838,25 +4868,25 @@
         <v>167</v>
       </c>
       <c r="AK42" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN42" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO42" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP42" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ42" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR42">
         <v>3</v>
@@ -4921,7 +4951,7 @@
         <v>167</v>
       </c>
       <c r="AK43" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AL43">
         <v>2</v>
@@ -4989,25 +5019,25 @@
         <v>167</v>
       </c>
       <c r="AK44" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AL44">
         <v>3</v>
       </c>
       <c r="AM44" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN44" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO44" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP44" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AQ44" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR44">
         <v>2</v>
@@ -5072,28 +5102,28 @@
         <v>182</v>
       </c>
       <c r="AF45" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG45" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AH45" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AM45" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO45" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP45" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="AQ45" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR45">
         <v>3</v>
@@ -5155,25 +5185,25 @@
         <v>178</v>
       </c>
       <c r="AF46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM46" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AN46" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO46" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP46" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AQ46" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -5235,16 +5265,16 @@
         <v>167</v>
       </c>
       <c r="AH47" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AK47" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AL47">
         <v>4</v>
       </c>
       <c r="AM47" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AR47">
         <v>3</v>
@@ -5309,28 +5339,28 @@
         <v>169</v>
       </c>
       <c r="AF48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG48" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AH48" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AM48" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AN48" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO48" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP48" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ48" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR48">
         <v>2</v>
@@ -5392,25 +5422,25 @@
         <v>183</v>
       </c>
       <c r="AF49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM49" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AN49" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO49" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP49" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ49" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR49">
         <v>2</v>
@@ -5469,25 +5499,25 @@
         <v>167</v>
       </c>
       <c r="AK50" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AN50" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO50" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP50" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AQ50" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR50">
         <v>3</v>
@@ -5611,25 +5641,25 @@
         <v>184</v>
       </c>
       <c r="AF52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG52" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM52" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AN52" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO52" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP52" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AQ52" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR52">
         <v>3</v>
@@ -5694,25 +5724,25 @@
         <v>185</v>
       </c>
       <c r="AF53" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG53" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM53" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AN53" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO53" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP53" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AQ53" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR53">
         <v>3</v>
@@ -5774,10 +5804,10 @@
         <v>167</v>
       </c>
       <c r="AH54" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AK54" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AL54">
         <v>4</v>
@@ -5842,16 +5872,16 @@
         <v>167</v>
       </c>
       <c r="AH55" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AK55" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AL55">
         <v>4</v>
       </c>
       <c r="AM55" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AR55">
         <v>3</v>
@@ -5919,7 +5949,7 @@
         <v>168</v>
       </c>
       <c r="AK56" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AL56">
         <v>4</v>
@@ -5984,25 +6014,25 @@
         <v>167</v>
       </c>
       <c r="AK57" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN57" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO57" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP57" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AQ57" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR57">
         <v>3</v>
@@ -6064,25 +6094,25 @@
         <v>186</v>
       </c>
       <c r="AF58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG58" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM58" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN58" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO58" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP58" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AQ58" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR58">
         <v>2</v>
@@ -6144,25 +6174,25 @@
         <v>187</v>
       </c>
       <c r="AF59" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG59" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM59" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AN59" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO59" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP59" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ59" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR59">
         <v>3</v>
@@ -6233,22 +6263,22 @@
         <v>188</v>
       </c>
       <c r="AG60" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM60" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AN60" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO60" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP60" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ60" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR60">
         <v>2</v>
@@ -6310,28 +6340,28 @@
         <v>167</v>
       </c>
       <c r="AH61" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AK61" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AL61">
         <v>3</v>
       </c>
       <c r="AM61" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AN61" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO61" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP61" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ61" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR61">
         <v>2</v>
@@ -6393,10 +6423,10 @@
         <v>167</v>
       </c>
       <c r="AH62" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AK62" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AL62">
         <v>4</v>
@@ -6458,25 +6488,25 @@
         <v>167</v>
       </c>
       <c r="AK63" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AN63" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO63" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP63" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AQ63" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR63">
         <v>4</v>
@@ -6538,28 +6568,28 @@
         <v>169</v>
       </c>
       <c r="AF64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG64" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH64" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AM64" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AN64" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AO64" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP64" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ64" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR64">
         <v>3</v>
@@ -6621,13 +6651,13 @@
         <v>167</v>
       </c>
       <c r="AK65" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AL65">
         <v>3</v>
       </c>
       <c r="AM65" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AR65">
         <v>3</v>
@@ -6689,7 +6719,7 @@
         <v>167</v>
       </c>
       <c r="AK66" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AL66">
         <v>1</v>
@@ -6754,7 +6784,7 @@
         <v>167</v>
       </c>
       <c r="AK67" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AL67">
         <v>3</v>
@@ -6819,25 +6849,25 @@
         <v>169</v>
       </c>
       <c r="AF68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG68" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM68" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AN68" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO68" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP68" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ68" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR68">
         <v>3</v>
@@ -6899,7 +6929,7 @@
         <v>167</v>
       </c>
       <c r="AK69" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AL69">
         <v>4</v>
@@ -6967,28 +6997,28 @@
         <v>189</v>
       </c>
       <c r="AF70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG70" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH70" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AM70" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AN70" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO70" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP70" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ70" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR70">
         <v>3</v>
@@ -7053,28 +7083,28 @@
         <v>190</v>
       </c>
       <c r="AF71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG71" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AH71" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AM71" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AN71" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO71" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP71" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AQ71" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR71">
         <v>3</v>
@@ -7136,10 +7166,10 @@
         <v>167</v>
       </c>
       <c r="AH72" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AK72" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AL72">
         <v>4</v>
@@ -7201,25 +7231,25 @@
         <v>167</v>
       </c>
       <c r="AK73" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN73" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO73" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP73" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AQ73" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -7281,7 +7311,7 @@
         <v>167</v>
       </c>
       <c r="AK74" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AL74">
         <v>3</v>
@@ -7346,25 +7376,25 @@
         <v>186</v>
       </c>
       <c r="AF75" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG75" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM75" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AN75" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO75" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP75" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ75" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR75">
         <v>3</v>
@@ -7426,7 +7456,7 @@
         <v>167</v>
       </c>
       <c r="AK76" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AL76">
         <v>3</v>
@@ -7491,25 +7521,25 @@
         <v>189</v>
       </c>
       <c r="AF77" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG77" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM77" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="AN77" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AO77" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP77" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AQ77" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -7568,10 +7598,10 @@
         <v>167</v>
       </c>
       <c r="AJ78" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AK78" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AL78">
         <v>4</v>
@@ -7639,28 +7669,28 @@
         <v>178</v>
       </c>
       <c r="AF79" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG79" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AH79" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AM79" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AN79" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO79" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP79" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AQ79" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR79">
         <v>4</v>
@@ -7725,25 +7755,25 @@
         <v>191</v>
       </c>
       <c r="AF80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG80" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM80" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AN80" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO80" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP80" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ80" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR80">
         <v>3</v>
@@ -7814,25 +7844,25 @@
         <v>192</v>
       </c>
       <c r="AF81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG81" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AM81" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AN81" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AO81" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP81" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AQ81" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR81">
         <v>2</v>
@@ -7897,28 +7927,28 @@
         <v>185</v>
       </c>
       <c r="AF82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG82" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH82" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AM82" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AN82" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AO82" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP82" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AQ82" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR82">
         <v>3</v>
@@ -7983,25 +8013,25 @@
         <v>167</v>
       </c>
       <c r="AK83" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AL83">
         <v>3</v>
       </c>
       <c r="AM83" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AN83" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO83" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP83" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AQ83" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR83">
         <v>4</v>
@@ -8066,25 +8096,25 @@
         <v>169</v>
       </c>
       <c r="AF84" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM84" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN84" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO84" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP84" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ84" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR84">
         <v>3</v>
@@ -8146,25 +8176,25 @@
         <v>193</v>
       </c>
       <c r="AF85" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG85" t="s">
         <v>205</v>
       </c>
-      <c r="AG85" t="s">
-        <v>203</v>
-      </c>
       <c r="AM85" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="AN85" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO85" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP85" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AQ85" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR85">
         <v>3</v>
@@ -8226,25 +8256,25 @@
         <v>194</v>
       </c>
       <c r="AF86" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG86" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM86" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AN86" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AO86" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP86" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AQ86" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR86">
         <v>3</v>
@@ -8303,25 +8333,25 @@
         <v>167</v>
       </c>
       <c r="AK87" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AN87" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO87" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP87" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AQ87" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR87">
         <v>4</v>
@@ -8383,13 +8413,13 @@
         <v>167</v>
       </c>
       <c r="AK88" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AL88">
         <v>2</v>
       </c>
       <c r="AM88" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AR88">
         <v>2</v>
@@ -8451,10 +8481,10 @@
         <v>167</v>
       </c>
       <c r="AH89" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AK89" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AL89">
         <v>1</v>
@@ -8519,7 +8549,7 @@
         <v>167</v>
       </c>
       <c r="AK90" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AL90">
         <v>3</v>
@@ -8584,13 +8614,13 @@
         <v>167</v>
       </c>
       <c r="AK91" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AL91">
         <v>4</v>
       </c>
       <c r="AM91" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AR91">
         <v>2</v>
@@ -8652,7 +8682,7 @@
         <v>167</v>
       </c>
       <c r="AK92" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AL92">
         <v>3</v>
@@ -8714,25 +8744,25 @@
         <v>167</v>
       </c>
       <c r="AK93" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AL93">
         <v>2</v>
       </c>
       <c r="AM93" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN93" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO93" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP93" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="AQ93" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR93">
         <v>3</v>
@@ -8794,13 +8824,13 @@
         <v>167</v>
       </c>
       <c r="AK94" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AL94">
         <v>3</v>
       </c>
       <c r="AM94" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AR94">
         <v>3</v>
@@ -8865,28 +8895,28 @@
         <v>191</v>
       </c>
       <c r="AF95" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG95" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AH95" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AM95" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AN95" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO95" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP95" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ95" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR95">
         <v>4</v>
@@ -8948,7 +8978,7 @@
         <v>167</v>
       </c>
       <c r="AK96" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AL96">
         <v>2</v>
@@ -9010,7 +9040,7 @@
         <v>167</v>
       </c>
       <c r="AK97" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AL97">
         <v>3</v>
@@ -9075,7 +9105,7 @@
         <v>167</v>
       </c>
       <c r="AK98" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AL98">
         <v>2</v>
@@ -9140,25 +9170,25 @@
         <v>195</v>
       </c>
       <c r="AF99" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG99" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AM99" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AN99" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO99" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP99" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AQ99" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR99">
         <v>3</v>
@@ -9220,28 +9250,28 @@
         <v>167</v>
       </c>
       <c r="AH100" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AK100" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AL100">
         <v>3</v>
       </c>
       <c r="AM100" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AN100" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO100" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP100" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ100" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR100">
         <v>3</v>
@@ -9303,28 +9333,28 @@
         <v>167</v>
       </c>
       <c r="AH101" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AK101" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AL101">
         <v>2</v>
       </c>
       <c r="AM101" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="AN101" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO101" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP101" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="AQ101" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR101">
         <v>3</v>
@@ -9389,25 +9419,25 @@
         <v>178</v>
       </c>
       <c r="AF102" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG102" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM102" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN102" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO102" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP102" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="AQ102" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR102">
         <v>3</v>
@@ -9469,10 +9499,10 @@
         <v>167</v>
       </c>
       <c r="AH103" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AK103" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AL103">
         <v>1</v>
@@ -9540,25 +9570,25 @@
         <v>169</v>
       </c>
       <c r="AF104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG104" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM104" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AN104" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO104" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP104" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AQ104" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR104">
         <v>1</v>
@@ -9620,28 +9650,28 @@
         <v>167</v>
       </c>
       <c r="AH105" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AK105" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AL105">
         <v>4</v>
       </c>
       <c r="AM105" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN105" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AO105" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP105" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ105" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR105">
         <v>4</v>
@@ -9703,25 +9733,25 @@
         <v>169</v>
       </c>
       <c r="AF106" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG106" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM106" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN106" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO106" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP106" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ106" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR106">
         <v>1</v>
@@ -9783,25 +9813,25 @@
         <v>169</v>
       </c>
       <c r="AF107" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG107" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM107" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN107" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO107" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP107" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ107" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR107">
         <v>3</v>
@@ -9860,28 +9890,28 @@
         <v>167</v>
       </c>
       <c r="AH108" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AK108" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="AM108" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN108" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO108" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP108" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ108" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR108">
         <v>4</v>
@@ -9943,13 +9973,13 @@
         <v>167</v>
       </c>
       <c r="AK109" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AL109">
         <v>4</v>
       </c>
       <c r="AM109" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AR109">
         <v>4</v>
@@ -10014,28 +10044,28 @@
         <v>169</v>
       </c>
       <c r="AF110" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG110" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH110" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AM110" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AN110" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO110" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP110" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AQ110" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR110">
         <v>3</v>
@@ -10100,28 +10130,28 @@
         <v>169</v>
       </c>
       <c r="AF111" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG111" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH111" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM111" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN111" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AO111" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP111" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ111" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR111">
         <v>1</v>
@@ -10180,7 +10210,7 @@
         <v>167</v>
       </c>
       <c r="AJ112" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AR112">
         <v>3</v>
@@ -10242,25 +10272,25 @@
         <v>196</v>
       </c>
       <c r="AF113" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG113" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM113" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN113" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO113" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP113" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ113" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR113">
         <v>4</v>
@@ -10322,25 +10352,25 @@
         <v>167</v>
       </c>
       <c r="AK114" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AL114">
         <v>4</v>
       </c>
       <c r="AM114" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="AN114" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO114" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP114" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AQ114" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AR114">
         <v>4</v>
@@ -10399,16 +10429,16 @@
         <v>167</v>
       </c>
       <c r="AH115" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AK115" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AL115">
         <v>2</v>
       </c>
       <c r="AM115" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AR115">
         <v>2</v>
@@ -10470,25 +10500,25 @@
         <v>179</v>
       </c>
       <c r="AF116" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG116" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AM116" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="AN116" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO116" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP116" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AQ116" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR116">
         <v>2</v>
@@ -10550,25 +10580,25 @@
         <v>169</v>
       </c>
       <c r="AF117" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG117" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AM117" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN117" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AO117" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP117" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AQ117" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR117">
         <v>3</v>
@@ -10630,7 +10660,7 @@
         <v>167</v>
       </c>
       <c r="AK118" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AL118">
         <v>1</v>
@@ -10698,25 +10728,25 @@
         <v>188</v>
       </c>
       <c r="AF119" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG119" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM119" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AN119" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO119" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP119" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AQ119" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AR119">
         <v>3</v>
@@ -10784,28 +10814,28 @@
         <v>197</v>
       </c>
       <c r="AF120" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG120" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH120" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AM120" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AN120" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO120" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AP120" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AQ120" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AR120">
         <v>4</v>
@@ -10864,13 +10894,13 @@
         <v>167</v>
       </c>
       <c r="AK121" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AL121">
         <v>4</v>
       </c>
       <c r="AM121" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AR121">
         <v>3</v>
@@ -10932,18 +10962,619 @@
         <v>167</v>
       </c>
       <c r="AH122" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AK122" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AL122">
         <v>3</v>
       </c>
       <c r="AM122" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AR122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>45821.488193124998</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123" t="s">
+        <v>54</v>
+      </c>
+      <c r="H123" t="s">
+        <v>57</v>
+      </c>
+      <c r="O123" t="s">
+        <v>82</v>
+      </c>
+      <c r="P123" t="s">
+        <v>86</v>
+      </c>
+      <c r="R123" t="s">
+        <v>89</v>
+      </c>
+      <c r="U123" t="s">
+        <v>95</v>
+      </c>
+      <c r="V123" t="s">
+        <v>100</v>
+      </c>
+      <c r="W123" t="s">
+        <v>142</v>
+      </c>
+      <c r="X123" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH123" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL123">
+        <v>4</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN123" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO123" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP123" t="s">
+        <v>368</v>
+      </c>
+      <c r="AQ123" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>45821.900767222221</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" t="s">
+        <v>55</v>
+      </c>
+      <c r="J124" t="s">
+        <v>65</v>
+      </c>
+      <c r="O124" t="s">
+        <v>82</v>
+      </c>
+      <c r="P124" t="s">
+        <v>84</v>
+      </c>
+      <c r="R124" t="s">
+        <v>89</v>
+      </c>
+      <c r="U124" t="s">
+        <v>95</v>
+      </c>
+      <c r="V124" t="s">
+        <v>100</v>
+      </c>
+      <c r="W124" t="s">
+        <v>142</v>
+      </c>
+      <c r="X124" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN124" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO124" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP124" t="s">
+        <v>342</v>
+      </c>
+      <c r="AQ124" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>45822.338735902777</v>
+      </c>
+      <c r="B125" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125" t="s">
+        <v>55</v>
+      </c>
+      <c r="J125" t="s">
+        <v>64</v>
+      </c>
+      <c r="O125" t="s">
+        <v>82</v>
+      </c>
+      <c r="P125" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>88</v>
+      </c>
+      <c r="R125" t="s">
+        <v>89</v>
+      </c>
+      <c r="U125" t="s">
+        <v>95</v>
+      </c>
+      <c r="V125" t="s">
+        <v>99</v>
+      </c>
+      <c r="W125" t="s">
+        <v>142</v>
+      </c>
+      <c r="X125" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK125" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL125">
+        <v>2</v>
+      </c>
+      <c r="AR125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>45822.338738587961</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" t="s">
+        <v>55</v>
+      </c>
+      <c r="J126" t="s">
+        <v>64</v>
+      </c>
+      <c r="O126" t="s">
+        <v>82</v>
+      </c>
+      <c r="P126" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>88</v>
+      </c>
+      <c r="R126" t="s">
+        <v>89</v>
+      </c>
+      <c r="U126" t="s">
+        <v>95</v>
+      </c>
+      <c r="V126" t="s">
+        <v>99</v>
+      </c>
+      <c r="W126" t="s">
+        <v>142</v>
+      </c>
+      <c r="X126" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL126">
+        <v>2</v>
+      </c>
+      <c r="AR126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>45822.634392604174</v>
+      </c>
+      <c r="B127" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" t="s">
+        <v>57</v>
+      </c>
+      <c r="O127" t="s">
+        <v>82</v>
+      </c>
+      <c r="P127" t="s">
+        <v>84</v>
+      </c>
+      <c r="R127" t="s">
+        <v>89</v>
+      </c>
+      <c r="U127" t="s">
+        <v>95</v>
+      </c>
+      <c r="V127" t="s">
+        <v>106</v>
+      </c>
+      <c r="W127" t="s">
+        <v>142</v>
+      </c>
+      <c r="X127" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN127" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO127" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP127" t="s">
+        <v>350</v>
+      </c>
+      <c r="AQ127" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>45822.634933125002</v>
+      </c>
+      <c r="B128" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" t="s">
+        <v>53</v>
+      </c>
+      <c r="G128" t="s">
+        <v>59</v>
+      </c>
+      <c r="M128" t="s">
+        <v>79</v>
+      </c>
+      <c r="O128" t="s">
+        <v>82</v>
+      </c>
+      <c r="P128" t="s">
+        <v>84</v>
+      </c>
+      <c r="R128" t="s">
+        <v>89</v>
+      </c>
+      <c r="U128" t="s">
+        <v>95</v>
+      </c>
+      <c r="V128" t="s">
+        <v>120</v>
+      </c>
+      <c r="W128" t="s">
+        <v>142</v>
+      </c>
+      <c r="X128" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN128" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO128" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>338</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>369</v>
+      </c>
+      <c r="AR128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>45822.801703865742</v>
+      </c>
+      <c r="B129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" t="s">
+        <v>53</v>
+      </c>
+      <c r="G129" t="s">
+        <v>59</v>
+      </c>
+      <c r="M129" t="s">
+        <v>79</v>
+      </c>
+      <c r="O129" t="s">
+        <v>82</v>
+      </c>
+      <c r="P129" t="s">
+        <v>84</v>
+      </c>
+      <c r="R129" t="s">
+        <v>89</v>
+      </c>
+      <c r="U129" t="s">
+        <v>95</v>
+      </c>
+      <c r="V129" t="s">
+        <v>99</v>
+      </c>
+      <c r="W129" t="s">
+        <v>142</v>
+      </c>
+      <c r="X129" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK129" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AR129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>45822.965425601848</v>
+      </c>
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130" t="s">
+        <v>55</v>
+      </c>
+      <c r="J130" t="s">
+        <v>64</v>
+      </c>
+      <c r="O130" t="s">
+        <v>82</v>
+      </c>
+      <c r="P130" t="s">
+        <v>84</v>
+      </c>
+      <c r="R130" t="s">
+        <v>89</v>
+      </c>
+      <c r="U130" t="s">
+        <v>95</v>
+      </c>
+      <c r="V130" t="s">
+        <v>111</v>
+      </c>
+      <c r="W130" t="s">
+        <v>142</v>
+      </c>
+      <c r="X130" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK130" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL130">
+        <v>3</v>
+      </c>
+      <c r="AR130">
         <v>4</v>
       </c>
     </row>

--- a/Data source/Risposte_unificate.xlsx
+++ b/Data source/Risposte_unificate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\Projects\Bike2Work\Data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A88CEA1-A788-42AA-B056-6BD7A4C9C55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33271BDF-CCBC-441F-B7F8-8F557F3C414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,9 +448,6 @@
     <t>Bicicletta muscolare, Monopattino o sistemi assimilabili, Moto/scooter a motore a scoppio, Automobile a diesel</t>
   </si>
   <si>
-    <t>No, nessun abbonamento</t>
-  </si>
-  <si>
     <t>Abbonamento bus (urbano o extraurbano)</t>
   </si>
   <si>
@@ -1134,10 +1131,13 @@
     <t>Si in ogni caso</t>
   </si>
   <si>
-    <t>Si, a determinate condizioni</t>
-  </si>
-  <si>
-    <t>No, in ogni caso</t>
+    <t>No nessun abbonamento</t>
+  </si>
+  <si>
+    <t>Si a determinate condizioni</t>
+  </si>
+  <si>
+    <t>No in ogni caso</t>
   </si>
 </sst>
 </file>
@@ -1511,11 +1511,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="23" max="23" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="173.36328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="72.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="164.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="89.81640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="149.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1689,52 +1701,52 @@
         <v>98</v>
       </c>
       <c r="W2" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP2" t="s">
         <v>337</v>
       </c>
-      <c r="AP2" t="s">
-        <v>338</v>
-      </c>
       <c r="AQ2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR2">
         <v>3</v>
@@ -1778,49 +1790,49 @@
         <v>98</v>
       </c>
       <c r="W3" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AQ3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR3">
         <v>2</v>
@@ -1864,49 +1876,49 @@
         <v>98</v>
       </c>
       <c r="W4" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AQ4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR4">
         <v>4</v>
@@ -1950,28 +1962,28 @@
         <v>99</v>
       </c>
       <c r="W5" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL5">
         <v>4</v>
@@ -2018,28 +2030,28 @@
         <v>99</v>
       </c>
       <c r="W6" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL6">
         <v>2</v>
@@ -2089,31 +2101,31 @@
         <v>98</v>
       </c>
       <c r="W7" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL7">
         <v>4</v>
@@ -2160,46 +2172,46 @@
         <v>100</v>
       </c>
       <c r="W8" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AM8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AN8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AQ8" t="s">
         <v>370</v>
@@ -2246,28 +2258,28 @@
         <v>101</v>
       </c>
       <c r="W9" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL9">
         <v>4</v>
@@ -2314,28 +2326,28 @@
         <v>99</v>
       </c>
       <c r="W10" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL10">
         <v>3</v>
@@ -2379,34 +2391,34 @@
         <v>98</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL11">
         <v>4</v>
       </c>
       <c r="AM11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AR11">
         <v>4</v>
@@ -2447,34 +2459,34 @@
         <v>102</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AK12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL12">
         <v>3</v>
@@ -2521,49 +2533,49 @@
         <v>103</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AN13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ13" t="s">
         <v>370</v>
@@ -2607,52 +2619,52 @@
         <v>98</v>
       </c>
       <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
         <v>144</v>
       </c>
-      <c r="X14" t="s">
-        <v>145</v>
-      </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO14" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP14" t="s">
         <v>337</v>
       </c>
-      <c r="AP14" t="s">
-        <v>338</v>
-      </c>
       <c r="AQ14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR14">
         <v>3</v>
@@ -2693,49 +2705,49 @@
         <v>104</v>
       </c>
       <c r="W15" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR15">
         <v>1</v>
@@ -2776,46 +2788,46 @@
         <v>98</v>
       </c>
       <c r="W16" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO16" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP16" t="s">
         <v>337</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>338</v>
       </c>
       <c r="AQ16" t="s">
         <v>370</v>
@@ -2859,46 +2871,46 @@
         <v>105</v>
       </c>
       <c r="W17" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO17" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP17" t="s">
         <v>337</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>338</v>
       </c>
       <c r="AQ17" t="s">
         <v>370</v>
@@ -2945,43 +2957,43 @@
         <v>106</v>
       </c>
       <c r="W18" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AQ18" t="s">
         <v>371</v>
@@ -3025,46 +3037,46 @@
         <v>107</v>
       </c>
       <c r="W19" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP19" t="s">
         <v>337</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>338</v>
       </c>
       <c r="AQ19" t="s">
         <v>370</v>
@@ -3108,46 +3120,46 @@
         <v>103</v>
       </c>
       <c r="W20" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA20" t="s">
         <v>162</v>
       </c>
-      <c r="AA20" t="s">
-        <v>163</v>
-      </c>
       <c r="AB20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AN20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ20" t="s">
         <v>370</v>
@@ -3191,49 +3203,49 @@
         <v>108</v>
       </c>
       <c r="W21" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AN21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO21" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP21" t="s">
         <v>337</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>338</v>
       </c>
       <c r="AQ21" t="s">
         <v>370</v>
@@ -3277,49 +3289,49 @@
         <v>109</v>
       </c>
       <c r="W22" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AN22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AQ22" t="s">
         <v>370</v>
@@ -3363,46 +3375,46 @@
         <v>100</v>
       </c>
       <c r="W23" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA23" t="s">
         <v>162</v>
       </c>
-      <c r="AA23" t="s">
-        <v>163</v>
-      </c>
       <c r="AB23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP23" t="s">
         <v>337</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>338</v>
       </c>
       <c r="AQ23" t="s">
         <v>370</v>
@@ -3446,46 +3458,46 @@
         <v>110</v>
       </c>
       <c r="W24" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AQ24" t="s">
         <v>370</v>
@@ -3529,46 +3541,46 @@
         <v>98</v>
       </c>
       <c r="W25" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ25" t="s">
         <v>370</v>
@@ -3615,34 +3627,34 @@
         <v>111</v>
       </c>
       <c r="W26" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL26">
         <v>2</v>
       </c>
       <c r="AM26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AR26">
         <v>3</v>
@@ -3683,46 +3695,46 @@
         <v>112</v>
       </c>
       <c r="W27" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO27" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP27" t="s">
         <v>337</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>338</v>
       </c>
       <c r="AQ27" t="s">
         <v>370</v>
@@ -3769,46 +3781,46 @@
         <v>113</v>
       </c>
       <c r="W28" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO28" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP28" t="s">
         <v>337</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>338</v>
       </c>
       <c r="AQ28" t="s">
         <v>370</v>
@@ -3852,46 +3864,46 @@
         <v>100</v>
       </c>
       <c r="W29" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z29" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA29" t="s">
         <v>162</v>
       </c>
-      <c r="AA29" t="s">
-        <v>163</v>
-      </c>
       <c r="AB29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO29" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP29" t="s">
         <v>337</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>338</v>
       </c>
       <c r="AQ29" t="s">
         <v>370</v>
@@ -3938,49 +3950,49 @@
         <v>107</v>
       </c>
       <c r="W30" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AQ30" t="s">
         <v>370</v>
@@ -4027,46 +4039,46 @@
         <v>98</v>
       </c>
       <c r="W31" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ31" t="s">
         <v>370</v>
@@ -4113,49 +4125,49 @@
         <v>98</v>
       </c>
       <c r="W32" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO32" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP32" t="s">
         <v>337</v>
       </c>
-      <c r="AP32" t="s">
-        <v>338</v>
-      </c>
       <c r="AQ32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR32">
         <v>4</v>
@@ -4199,31 +4211,31 @@
         <v>114</v>
       </c>
       <c r="W33" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL33">
         <v>3</v>
@@ -4270,28 +4282,28 @@
         <v>115</v>
       </c>
       <c r="W34" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AL34">
         <v>2</v>
@@ -4335,43 +4347,43 @@
         <v>106</v>
       </c>
       <c r="W35" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AN35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AQ35" t="s">
         <v>371</v>
@@ -4418,34 +4430,34 @@
         <v>98</v>
       </c>
       <c r="W36" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL36">
         <v>3</v>
       </c>
       <c r="AM36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AR36">
         <v>4</v>
@@ -4489,31 +4501,31 @@
         <v>99</v>
       </c>
       <c r="W37" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL37">
         <v>3</v>
@@ -4560,25 +4572,25 @@
         <v>114</v>
       </c>
       <c r="W38" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR38">
         <v>3</v>
@@ -4619,49 +4631,49 @@
         <v>103</v>
       </c>
       <c r="W39" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AM39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AQ39" t="s">
         <v>370</v>
@@ -4708,25 +4720,25 @@
         <v>116</v>
       </c>
       <c r="W40" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR40">
         <v>2</v>
@@ -4767,43 +4779,43 @@
         <v>100</v>
       </c>
       <c r="W41" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z41" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA41" t="s">
         <v>162</v>
       </c>
-      <c r="AA41" t="s">
-        <v>163</v>
-      </c>
       <c r="AB41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL41">
         <v>3</v>
       </c>
       <c r="AM41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AQ41" t="s">
         <v>371</v>
@@ -4847,43 +4859,43 @@
         <v>117</v>
       </c>
       <c r="W42" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO42" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP42" t="s">
         <v>337</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>338</v>
       </c>
       <c r="AQ42" t="s">
         <v>371</v>
@@ -4930,28 +4942,28 @@
         <v>99</v>
       </c>
       <c r="W43" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL43">
         <v>2</v>
@@ -4998,43 +5010,43 @@
         <v>118</v>
       </c>
       <c r="W44" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL44">
         <v>3</v>
       </c>
       <c r="AM44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AQ44" t="s">
         <v>371</v>
@@ -5078,49 +5090,49 @@
         <v>119</v>
       </c>
       <c r="W45" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AN45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AQ45" t="s">
         <v>370</v>
@@ -5161,46 +5173,46 @@
         <v>120</v>
       </c>
       <c r="W46" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AQ46" t="s">
         <v>370</v>
@@ -5244,37 +5256,37 @@
         <v>121</v>
       </c>
       <c r="W47" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AK47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL47">
         <v>4</v>
       </c>
       <c r="AM47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AR47">
         <v>3</v>
@@ -5315,49 +5327,49 @@
         <v>122</v>
       </c>
       <c r="W48" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AN48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO48" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP48" t="s">
         <v>337</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>338</v>
       </c>
       <c r="AQ48" t="s">
         <v>370</v>
@@ -5398,46 +5410,46 @@
         <v>123</v>
       </c>
       <c r="W49" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO49" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP49" t="s">
         <v>337</v>
-      </c>
-      <c r="AP49" t="s">
-        <v>338</v>
       </c>
       <c r="AQ49" t="s">
         <v>370</v>
@@ -5478,43 +5490,43 @@
         <v>124</v>
       </c>
       <c r="W50" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ50" t="s">
         <v>371</v>
@@ -5561,25 +5573,25 @@
         <v>100</v>
       </c>
       <c r="W51" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR51">
         <v>4</v>
@@ -5617,46 +5629,46 @@
         <v>100</v>
       </c>
       <c r="W52" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AQ52" t="s">
         <v>370</v>
@@ -5700,46 +5712,46 @@
         <v>98</v>
       </c>
       <c r="W53" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ53" t="s">
         <v>370</v>
@@ -5783,31 +5795,31 @@
         <v>99</v>
       </c>
       <c r="W54" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AL54">
         <v>4</v>
@@ -5851,37 +5863,37 @@
         <v>99</v>
       </c>
       <c r="W55" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AK55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL55">
         <v>4</v>
       </c>
       <c r="AM55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AR55">
         <v>3</v>
@@ -5928,28 +5940,28 @@
         <v>99</v>
       </c>
       <c r="W56" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL56">
         <v>4</v>
@@ -5993,43 +6005,43 @@
         <v>100</v>
       </c>
       <c r="W57" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ57" t="s">
         <v>371</v>
@@ -6070,49 +6082,49 @@
         <v>125</v>
       </c>
       <c r="W58" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AQ58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR58">
         <v>2</v>
@@ -6150,46 +6162,46 @@
         <v>126</v>
       </c>
       <c r="W59" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AN59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ59" t="s">
         <v>370</v>
@@ -6236,46 +6248,46 @@
         <v>103</v>
       </c>
       <c r="W60" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AN60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ60" t="s">
         <v>370</v>
@@ -6319,46 +6331,46 @@
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL61">
         <v>3</v>
       </c>
       <c r="AM61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO61" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP61" t="s">
         <v>337</v>
-      </c>
-      <c r="AP61" t="s">
-        <v>338</v>
       </c>
       <c r="AQ61" t="s">
         <v>371</v>
@@ -6402,31 +6414,31 @@
         <v>99</v>
       </c>
       <c r="W62" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL62">
         <v>4</v>
@@ -6467,43 +6479,43 @@
         <v>98</v>
       </c>
       <c r="W63" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AQ63" t="s">
         <v>371</v>
@@ -6544,49 +6556,49 @@
         <v>107</v>
       </c>
       <c r="W64" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO64" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP64" t="s">
         <v>337</v>
-      </c>
-      <c r="AP64" t="s">
-        <v>338</v>
       </c>
       <c r="AQ64" t="s">
         <v>370</v>
@@ -6630,34 +6642,34 @@
         <v>127</v>
       </c>
       <c r="W65" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL65">
         <v>3</v>
       </c>
       <c r="AM65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AR65">
         <v>3</v>
@@ -6698,28 +6710,28 @@
         <v>128</v>
       </c>
       <c r="W66" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AL66">
         <v>1</v>
@@ -6763,28 +6775,28 @@
         <v>98</v>
       </c>
       <c r="W67" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AL67">
         <v>3</v>
@@ -6825,46 +6837,46 @@
         <v>102</v>
       </c>
       <c r="W68" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO68" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP68" t="s">
         <v>337</v>
-      </c>
-      <c r="AP68" t="s">
-        <v>338</v>
       </c>
       <c r="AQ68" t="s">
         <v>370</v>
@@ -6908,28 +6920,28 @@
         <v>99</v>
       </c>
       <c r="W69" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL69">
         <v>4</v>
@@ -6973,49 +6985,49 @@
         <v>106</v>
       </c>
       <c r="W70" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO70" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ70" t="s">
         <v>370</v>
@@ -7059,49 +7071,49 @@
         <v>106</v>
       </c>
       <c r="W71" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AN71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP71" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AQ71" t="s">
         <v>370</v>
@@ -7145,31 +7157,31 @@
         <v>99</v>
       </c>
       <c r="W72" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z72" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA72" t="s">
         <v>162</v>
       </c>
-      <c r="AA72" t="s">
-        <v>163</v>
-      </c>
       <c r="AB72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL72">
         <v>4</v>
@@ -7210,43 +7222,43 @@
         <v>106</v>
       </c>
       <c r="W73" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO73" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ73" t="s">
         <v>371</v>
@@ -7290,28 +7302,28 @@
         <v>129</v>
       </c>
       <c r="W74" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL74">
         <v>3</v>
@@ -7352,46 +7364,46 @@
         <v>100</v>
       </c>
       <c r="W75" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO75" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ75" t="s">
         <v>370</v>
@@ -7435,28 +7447,28 @@
         <v>98</v>
       </c>
       <c r="W76" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL76">
         <v>3</v>
@@ -7497,46 +7509,46 @@
         <v>107</v>
       </c>
       <c r="W77" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AN77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AQ77" t="s">
         <v>370</v>
@@ -7577,31 +7589,31 @@
         <v>98</v>
       </c>
       <c r="W78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL78">
         <v>4</v>
@@ -7645,49 +7657,49 @@
         <v>99</v>
       </c>
       <c r="W79" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AQ79" t="s">
         <v>370</v>
@@ -7731,46 +7743,46 @@
         <v>130</v>
       </c>
       <c r="W80" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO80" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ80" t="s">
         <v>370</v>
@@ -7820,46 +7832,46 @@
         <v>107</v>
       </c>
       <c r="W81" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AQ81" t="s">
         <v>370</v>
@@ -7903,49 +7915,49 @@
         <v>104</v>
       </c>
       <c r="W82" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AM82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AN82" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO82" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP82" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AQ82" t="s">
         <v>370</v>
@@ -7992,43 +8004,43 @@
         <v>98</v>
       </c>
       <c r="W83" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL83">
         <v>3</v>
       </c>
       <c r="AM83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN83" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO83" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP83" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AQ83" t="s">
         <v>371</v>
@@ -8072,49 +8084,49 @@
         <v>131</v>
       </c>
       <c r="W84" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM84" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN84" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO84" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP84" t="s">
         <v>337</v>
       </c>
-      <c r="AP84" t="s">
-        <v>338</v>
-      </c>
       <c r="AQ84" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR84">
         <v>3</v>
@@ -8152,46 +8164,46 @@
         <v>132</v>
       </c>
       <c r="W85" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z85" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA85" t="s">
         <v>162</v>
       </c>
-      <c r="AA85" t="s">
-        <v>163</v>
-      </c>
       <c r="AB85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AN85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AQ85" t="s">
         <v>370</v>
@@ -8232,46 +8244,46 @@
         <v>133</v>
       </c>
       <c r="W86" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO86" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ86" t="s">
         <v>370</v>
@@ -8312,43 +8324,43 @@
         <v>134</v>
       </c>
       <c r="W87" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN87" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO87" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AQ87" t="s">
         <v>371</v>
@@ -8392,34 +8404,34 @@
         <v>106</v>
       </c>
       <c r="W88" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL88">
         <v>2</v>
       </c>
       <c r="AM88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AR88">
         <v>2</v>
@@ -8460,31 +8472,31 @@
         <v>98</v>
       </c>
       <c r="W89" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL89">
         <v>1</v>
@@ -8528,28 +8540,28 @@
         <v>107</v>
       </c>
       <c r="W90" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL90">
         <v>3</v>
@@ -8593,34 +8605,34 @@
         <v>135</v>
       </c>
       <c r="W91" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL91">
         <v>4</v>
       </c>
       <c r="AM91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AR91">
         <v>2</v>
@@ -8661,28 +8673,28 @@
         <v>98</v>
       </c>
       <c r="W92" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK92" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL92">
         <v>3</v>
@@ -8723,43 +8735,43 @@
         <v>98</v>
       </c>
       <c r="W93" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z93" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA93" t="s">
         <v>162</v>
       </c>
-      <c r="AA93" t="s">
-        <v>163</v>
-      </c>
       <c r="AB93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL93">
         <v>2</v>
       </c>
       <c r="AM93" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP93" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AQ93" t="s">
         <v>371</v>
@@ -8803,34 +8815,34 @@
         <v>99</v>
       </c>
       <c r="W94" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL94">
         <v>3</v>
       </c>
       <c r="AM94" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AR94">
         <v>3</v>
@@ -8871,49 +8883,49 @@
         <v>117</v>
       </c>
       <c r="W95" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AM95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AN95" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO95" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP95" t="s">
         <v>337</v>
-      </c>
-      <c r="AP95" t="s">
-        <v>338</v>
       </c>
       <c r="AQ95" t="s">
         <v>370</v>
@@ -8957,28 +8969,28 @@
         <v>98</v>
       </c>
       <c r="W96" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL96">
         <v>2</v>
@@ -9019,28 +9031,28 @@
         <v>98</v>
       </c>
       <c r="W97" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL97">
         <v>3</v>
@@ -9084,28 +9096,28 @@
         <v>136</v>
       </c>
       <c r="W98" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL98">
         <v>2</v>
@@ -9146,46 +9158,46 @@
         <v>98</v>
       </c>
       <c r="W99" t="s">
+        <v>143</v>
+      </c>
+      <c r="X99" t="s">
         <v>144</v>
       </c>
-      <c r="X99" t="s">
-        <v>145</v>
-      </c>
       <c r="Y99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG99" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM99" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AN99" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO99" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AQ99" t="s">
         <v>370</v>
@@ -9229,46 +9241,46 @@
         <v>103</v>
       </c>
       <c r="W100" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AL100">
         <v>3</v>
       </c>
       <c r="AM100" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AN100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO100" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ100" t="s">
         <v>371</v>
@@ -9312,46 +9324,46 @@
         <v>102</v>
       </c>
       <c r="W101" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AK101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL101">
         <v>2</v>
       </c>
       <c r="AM101" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AN101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AQ101" t="s">
         <v>371</v>
@@ -9395,46 +9407,46 @@
         <v>103</v>
       </c>
       <c r="W102" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF102" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM102" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP102" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AQ102" t="s">
         <v>370</v>
@@ -9478,31 +9490,31 @@
         <v>99</v>
       </c>
       <c r="W103" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL103">
         <v>1</v>
@@ -9546,49 +9558,49 @@
         <v>137</v>
       </c>
       <c r="W104" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF104" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AN104" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO104" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AQ104" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR104">
         <v>1</v>
@@ -9629,46 +9641,46 @@
         <v>116</v>
       </c>
       <c r="W105" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AK105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL105">
         <v>4</v>
       </c>
       <c r="AM105" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN105" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO105" t="s">
         <v>336</v>
       </c>
-      <c r="AO105" t="s">
+      <c r="AP105" t="s">
         <v>337</v>
-      </c>
-      <c r="AP105" t="s">
-        <v>338</v>
       </c>
       <c r="AQ105" t="s">
         <v>371</v>
@@ -9709,46 +9721,46 @@
         <v>124</v>
       </c>
       <c r="W106" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO106" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP106" t="s">
         <v>337</v>
-      </c>
-      <c r="AP106" t="s">
-        <v>338</v>
       </c>
       <c r="AQ106" t="s">
         <v>370</v>
@@ -9789,46 +9801,46 @@
         <v>98</v>
       </c>
       <c r="W107" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC107" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE107" t="s">
         <v>168</v>
       </c>
-      <c r="AE107" t="s">
-        <v>169</v>
-      </c>
       <c r="AF107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM107" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN107" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO107" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP107" t="s">
         <v>337</v>
-      </c>
-      <c r="AP107" t="s">
-        <v>338</v>
       </c>
       <c r="AQ107" t="s">
         <v>370</v>
@@ -9869,46 +9881,46 @@
         <v>98</v>
       </c>
       <c r="W108" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK108" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="AM108" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN108" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO108" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP108" t="s">
         <v>337</v>
-      </c>
-      <c r="AP108" t="s">
-        <v>338</v>
       </c>
       <c r="AQ108" t="s">
         <v>371</v>
@@ -9952,34 +9964,34 @@
         <v>100</v>
       </c>
       <c r="W109" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL109">
         <v>4</v>
       </c>
       <c r="AM109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AR109">
         <v>4</v>
@@ -10020,52 +10032,52 @@
         <v>138</v>
       </c>
       <c r="W110" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM110" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN110" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO110" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP110" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AQ110" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR110">
         <v>3</v>
@@ -10106,52 +10118,52 @@
         <v>139</v>
       </c>
       <c r="W111" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF111" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG111" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN111" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO111" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP111" t="s">
         <v>337</v>
       </c>
-      <c r="AP111" t="s">
-        <v>338</v>
-      </c>
       <c r="AQ111" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR111">
         <v>1</v>
@@ -10189,28 +10201,28 @@
         <v>118</v>
       </c>
       <c r="W112" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ112" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AR112">
         <v>3</v>
@@ -10248,46 +10260,46 @@
         <v>140</v>
       </c>
       <c r="W113" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB113" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG113" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN113" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO113" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP113" t="s">
         <v>337</v>
-      </c>
-      <c r="AP113" t="s">
-        <v>338</v>
       </c>
       <c r="AQ113" t="s">
         <v>370</v>
@@ -10331,43 +10343,43 @@
         <v>123</v>
       </c>
       <c r="W114" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK114" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL114">
         <v>4</v>
       </c>
       <c r="AM114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP114" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ114" t="s">
         <v>371</v>
@@ -10408,37 +10420,37 @@
         <v>103</v>
       </c>
       <c r="W115" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z115" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA115" t="s">
         <v>162</v>
       </c>
-      <c r="AA115" t="s">
-        <v>163</v>
-      </c>
       <c r="AB115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC115" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK115" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL115">
         <v>2</v>
       </c>
       <c r="AM115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AR115">
         <v>2</v>
@@ -10476,46 +10488,46 @@
         <v>103</v>
       </c>
       <c r="W116" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z116" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA116" t="s">
         <v>162</v>
       </c>
-      <c r="AA116" t="s">
-        <v>163</v>
-      </c>
       <c r="AB116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG116" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM116" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AN116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AQ116" t="s">
         <v>370</v>
@@ -10556,46 +10568,46 @@
         <v>124</v>
       </c>
       <c r="W117" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG117" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AM117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN117" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO117" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP117" t="s">
         <v>337</v>
-      </c>
-      <c r="AP117" t="s">
-        <v>338</v>
       </c>
       <c r="AQ117" t="s">
         <v>370</v>
@@ -10639,28 +10651,28 @@
         <v>122</v>
       </c>
       <c r="W118" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK118" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL118">
         <v>1</v>
@@ -10704,46 +10716,46 @@
         <v>98</v>
       </c>
       <c r="W119" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN119" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO119" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP119" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ119" t="s">
         <v>370</v>
@@ -10790,52 +10802,52 @@
         <v>100</v>
       </c>
       <c r="W120" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM120" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN120" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO120" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AQ120" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR120">
         <v>4</v>
@@ -10873,34 +10885,34 @@
         <v>98</v>
       </c>
       <c r="W121" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL121">
         <v>4</v>
       </c>
       <c r="AM121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AR121">
         <v>3</v>
@@ -10941,37 +10953,37 @@
         <v>141</v>
       </c>
       <c r="W122" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AL122">
         <v>3</v>
       </c>
       <c r="AM122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AR122">
         <v>4</v>
@@ -11009,46 +11021,46 @@
         <v>100</v>
       </c>
       <c r="W123" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH123" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK123" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL123">
         <v>4</v>
       </c>
       <c r="AM123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN123" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO123" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP123" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AQ123" t="s">
         <v>371</v>
@@ -11092,46 +11104,46 @@
         <v>100</v>
       </c>
       <c r="W124" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE124" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN124" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP124" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ124" t="s">
         <v>370</v>
@@ -11178,31 +11190,31 @@
         <v>99</v>
       </c>
       <c r="W125" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK125" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL125">
         <v>2</v>
@@ -11249,31 +11261,31 @@
         <v>99</v>
       </c>
       <c r="W126" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK126" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL126">
         <v>2</v>
@@ -11314,46 +11326,46 @@
         <v>106</v>
       </c>
       <c r="W127" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF127" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AN127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO127" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP127" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AQ127" t="s">
         <v>370</v>
@@ -11397,49 +11409,49 @@
         <v>120</v>
       </c>
       <c r="W128" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y128" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE128" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM128" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO128" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP128" t="s">
         <v>337</v>
       </c>
-      <c r="AP128" t="s">
-        <v>338</v>
-      </c>
       <c r="AQ128" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR128">
         <v>2</v>
@@ -11480,28 +11492,28 @@
         <v>99</v>
       </c>
       <c r="W129" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB129" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK129" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL129">
         <v>1</v>
@@ -11545,31 +11557,31 @@
         <v>111</v>
       </c>
       <c r="W130" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="X130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC130" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH130" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AK130" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AL130">
         <v>3</v>

--- a/Data source/Risposte_unificate.xlsx
+++ b/Data source/Risposte_unificate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\Projects\Bike2Work\Data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33271BDF-CCBC-441F-B7F8-8F557F3C414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19704D-8EED-4123-8ADF-4FEAFB332A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="371">
   <si>
     <t>Informazioni cronologiche</t>
   </si>
@@ -511,13 +511,7 @@
     <t>Diretto (casa - lavoro)</t>
   </si>
   <si>
-    <t>Indiretto (casa - accompagnare figli a scuola, commissioni, altro - lavoro)</t>
-  </si>
-  <si>
     <t>Diretto (lavoro - casa)</t>
-  </si>
-  <si>
-    <t>Indiretto (lavoro - accompagnare figli a scuola, commissioni, altro - casa)</t>
   </si>
   <si>
     <t>Caserma</t>
@@ -1138,6 +1132,9 @@
   </si>
   <si>
     <t>No in ogni caso</t>
+  </si>
+  <si>
+    <t>Indiretto (casa - accompagnare figli a scuola; commissioni; altro - lavoro)</t>
   </si>
 </sst>
 </file>
@@ -1511,14 +1508,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="X24" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="23" max="23" width="48.26953125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="75" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="61.7265625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="173.36328125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="255.6328125" bestFit="1" customWidth="1"/>
@@ -1701,7 +1699,7 @@
         <v>98</v>
       </c>
       <c r="W2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X2" t="s">
         <v>144</v>
@@ -1716,37 +1714,37 @@
         <v>162</v>
       </c>
       <c r="AB2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE2" t="s">
         <v>166</v>
       </c>
-      <c r="AE2" t="s">
-        <v>168</v>
-      </c>
       <c r="AF2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AH2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR2">
         <v>3</v>
@@ -1790,7 +1788,7 @@
         <v>98</v>
       </c>
       <c r="W3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X3" t="s">
         <v>144</v>
@@ -1805,34 +1803,34 @@
         <v>162</v>
       </c>
       <c r="AB3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AP3" t="s">
         <v>336</v>
       </c>
-      <c r="AP3" t="s">
-        <v>338</v>
-      </c>
       <c r="AQ3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR3">
         <v>2</v>
@@ -1876,7 +1874,7 @@
         <v>98</v>
       </c>
       <c r="W4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X4" t="s">
         <v>144</v>
@@ -1891,34 +1889,34 @@
         <v>162</v>
       </c>
       <c r="AB4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AN4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AQ4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR4">
         <v>4</v>
@@ -1962,7 +1960,7 @@
         <v>99</v>
       </c>
       <c r="W5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X5" t="s">
         <v>145</v>
@@ -1977,13 +1975,13 @@
         <v>162</v>
       </c>
       <c r="AB5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AL5">
         <v>4</v>
@@ -2030,7 +2028,7 @@
         <v>99</v>
       </c>
       <c r="W6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X6" t="s">
         <v>145</v>
@@ -2042,16 +2040,16 @@
         <v>158</v>
       </c>
       <c r="AA6" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB6" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL6">
         <v>2</v>
@@ -2101,7 +2099,7 @@
         <v>98</v>
       </c>
       <c r="W7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X7" t="s">
         <v>145</v>
@@ -2116,16 +2114,16 @@
         <v>162</v>
       </c>
       <c r="AB7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AK7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AL7">
         <v>4</v>
@@ -2172,7 +2170,7 @@
         <v>100</v>
       </c>
       <c r="W8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X8" t="s">
         <v>144</v>
@@ -2187,34 +2185,34 @@
         <v>162</v>
       </c>
       <c r="AB8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AN8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AQ8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR8">
         <v>3</v>
@@ -2258,7 +2256,7 @@
         <v>101</v>
       </c>
       <c r="W9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X9" t="s">
         <v>145</v>
@@ -2273,13 +2271,13 @@
         <v>162</v>
       </c>
       <c r="AB9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AL9">
         <v>4</v>
@@ -2326,7 +2324,7 @@
         <v>99</v>
       </c>
       <c r="W10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X10" t="s">
         <v>145</v>
@@ -2341,13 +2339,13 @@
         <v>162</v>
       </c>
       <c r="AB10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AL10">
         <v>3</v>
@@ -2406,19 +2404,19 @@
         <v>162</v>
       </c>
       <c r="AB11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AL11">
         <v>4</v>
       </c>
       <c r="AM11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AR11">
         <v>4</v>
@@ -2474,19 +2472,19 @@
         <v>162</v>
       </c>
       <c r="AB12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AJ12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AL12">
         <v>3</v>
@@ -2533,7 +2531,7 @@
         <v>103</v>
       </c>
       <c r="W13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X13" t="s">
         <v>144</v>
@@ -2548,37 +2546,37 @@
         <v>162</v>
       </c>
       <c r="AB13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AH13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR13">
         <v>3</v>
@@ -2634,37 +2632,37 @@
         <v>162</v>
       </c>
       <c r="AB14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE14" t="s">
         <v>166</v>
       </c>
-      <c r="AE14" t="s">
-        <v>168</v>
-      </c>
       <c r="AF14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AN14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR14">
         <v>3</v>
@@ -2705,7 +2703,7 @@
         <v>104</v>
       </c>
       <c r="W15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X15" t="s">
         <v>144</v>
@@ -2720,34 +2718,34 @@
         <v>162</v>
       </c>
       <c r="AB15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE15" t="s">
         <v>166</v>
       </c>
-      <c r="AE15" t="s">
-        <v>168</v>
-      </c>
       <c r="AF15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR15">
         <v>1</v>
@@ -2788,7 +2786,7 @@
         <v>98</v>
       </c>
       <c r="W16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X16" t="s">
         <v>144</v>
@@ -2803,34 +2801,34 @@
         <v>162</v>
       </c>
       <c r="AB16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE16" t="s">
         <v>166</v>
       </c>
-      <c r="AE16" t="s">
-        <v>168</v>
-      </c>
       <c r="AF16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR16">
         <v>2</v>
@@ -2871,7 +2869,7 @@
         <v>105</v>
       </c>
       <c r="W17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X17" t="s">
         <v>144</v>
@@ -2886,34 +2884,34 @@
         <v>162</v>
       </c>
       <c r="AB17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR17">
         <v>1</v>
@@ -2957,7 +2955,7 @@
         <v>106</v>
       </c>
       <c r="W18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X18" t="s">
         <v>144</v>
@@ -2972,31 +2970,31 @@
         <v>162</v>
       </c>
       <c r="AB18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AQ18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR18">
         <v>2</v>
@@ -3037,7 +3035,7 @@
         <v>107</v>
       </c>
       <c r="W19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X19" t="s">
         <v>144</v>
@@ -3052,34 +3050,34 @@
         <v>162</v>
       </c>
       <c r="AB19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR19">
         <v>1</v>
@@ -3120,7 +3118,7 @@
         <v>103</v>
       </c>
       <c r="W20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X20" t="s">
         <v>144</v>
@@ -3135,34 +3133,34 @@
         <v>162</v>
       </c>
       <c r="AB20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE20" t="s">
         <v>166</v>
       </c>
-      <c r="AE20" t="s">
-        <v>168</v>
-      </c>
       <c r="AF20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR20">
         <v>2</v>
@@ -3203,7 +3201,7 @@
         <v>108</v>
       </c>
       <c r="W21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X21" t="s">
         <v>144</v>
@@ -3215,40 +3213,40 @@
         <v>158</v>
       </c>
       <c r="AA21" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AH21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AN21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR21">
         <v>3</v>
@@ -3289,7 +3287,7 @@
         <v>109</v>
       </c>
       <c r="W22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X22" t="s">
         <v>144</v>
@@ -3301,40 +3299,40 @@
         <v>157</v>
       </c>
       <c r="AA22" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AH22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AQ22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR22">
         <v>4</v>
@@ -3375,7 +3373,7 @@
         <v>100</v>
       </c>
       <c r="W23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X23" t="s">
         <v>144</v>
@@ -3390,34 +3388,34 @@
         <v>162</v>
       </c>
       <c r="AB23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -3458,7 +3456,7 @@
         <v>110</v>
       </c>
       <c r="W24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X24" t="s">
         <v>144</v>
@@ -3473,34 +3471,34 @@
         <v>162</v>
       </c>
       <c r="AB24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC24" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE24" t="s">
         <v>166</v>
       </c>
-      <c r="AE24" t="s">
-        <v>168</v>
-      </c>
       <c r="AF24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AQ24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR24">
         <v>4</v>
@@ -3541,7 +3539,7 @@
         <v>98</v>
       </c>
       <c r="W25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X25" t="s">
         <v>144</v>
@@ -3556,34 +3554,34 @@
         <v>162</v>
       </c>
       <c r="AB25" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR25">
         <v>3</v>
@@ -3627,7 +3625,7 @@
         <v>111</v>
       </c>
       <c r="W26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X26" t="s">
         <v>146</v>
@@ -3642,19 +3640,19 @@
         <v>162</v>
       </c>
       <c r="AB26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AL26">
         <v>2</v>
       </c>
       <c r="AM26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR26">
         <v>3</v>
@@ -3695,7 +3693,7 @@
         <v>112</v>
       </c>
       <c r="W27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X27" t="s">
         <v>144</v>
@@ -3710,34 +3708,34 @@
         <v>162</v>
       </c>
       <c r="AB27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE27" t="s">
         <v>166</v>
       </c>
-      <c r="AE27" t="s">
-        <v>168</v>
-      </c>
       <c r="AF27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR27">
         <v>3</v>
@@ -3781,7 +3779,7 @@
         <v>113</v>
       </c>
       <c r="W28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X28" t="s">
         <v>144</v>
@@ -3796,34 +3794,34 @@
         <v>162</v>
       </c>
       <c r="AB28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE28" t="s">
         <v>166</v>
       </c>
-      <c r="AE28" t="s">
-        <v>168</v>
-      </c>
       <c r="AF28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR28">
         <v>3</v>
@@ -3864,7 +3862,7 @@
         <v>100</v>
       </c>
       <c r="W29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X29" t="s">
         <v>144</v>
@@ -3879,34 +3877,34 @@
         <v>162</v>
       </c>
       <c r="AB29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE29" t="s">
         <v>166</v>
       </c>
-      <c r="AE29" t="s">
-        <v>168</v>
-      </c>
       <c r="AF29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR29">
         <v>3</v>
@@ -3950,7 +3948,7 @@
         <v>107</v>
       </c>
       <c r="W30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X30" t="s">
         <v>144</v>
@@ -3965,37 +3963,37 @@
         <v>162</v>
       </c>
       <c r="AB30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AQ30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR30">
         <v>3</v>
@@ -4039,7 +4037,7 @@
         <v>98</v>
       </c>
       <c r="W31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X31" t="s">
         <v>148</v>
@@ -4051,37 +4049,37 @@
         <v>158</v>
       </c>
       <c r="AA31" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB31" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE31" t="s">
         <v>166</v>
       </c>
-      <c r="AE31" t="s">
-        <v>168</v>
-      </c>
       <c r="AF31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR31">
         <v>4</v>
@@ -4125,7 +4123,7 @@
         <v>98</v>
       </c>
       <c r="W32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X32" t="s">
         <v>144</v>
@@ -4140,34 +4138,34 @@
         <v>162</v>
       </c>
       <c r="AB32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE32" t="s">
         <v>166</v>
       </c>
-      <c r="AE32" t="s">
-        <v>168</v>
-      </c>
       <c r="AF32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR32">
         <v>4</v>
@@ -4211,7 +4209,7 @@
         <v>114</v>
       </c>
       <c r="W33" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X33" t="s">
         <v>145</v>
@@ -4226,16 +4224,16 @@
         <v>162</v>
       </c>
       <c r="AB33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AK33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL33">
         <v>3</v>
@@ -4282,7 +4280,7 @@
         <v>115</v>
       </c>
       <c r="W34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X34" t="s">
         <v>145</v>
@@ -4297,13 +4295,13 @@
         <v>162</v>
       </c>
       <c r="AB34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AL34">
         <v>2</v>
@@ -4347,7 +4345,7 @@
         <v>106</v>
       </c>
       <c r="W35" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X35" t="s">
         <v>144</v>
@@ -4362,31 +4360,31 @@
         <v>162</v>
       </c>
       <c r="AB35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP35" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AQ35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR35">
         <v>4</v>
@@ -4430,7 +4428,7 @@
         <v>98</v>
       </c>
       <c r="W36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X36" t="s">
         <v>146</v>
@@ -4442,22 +4440,22 @@
         <v>158</v>
       </c>
       <c r="AA36" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL36">
         <v>3</v>
       </c>
       <c r="AM36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AR36">
         <v>4</v>
@@ -4501,7 +4499,7 @@
         <v>99</v>
       </c>
       <c r="W37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X37" t="s">
         <v>145</v>
@@ -4516,16 +4514,16 @@
         <v>162</v>
       </c>
       <c r="AB37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AK37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL37">
         <v>3</v>
@@ -4572,7 +4570,7 @@
         <v>114</v>
       </c>
       <c r="W38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X38" t="s">
         <v>149</v>
@@ -4587,10 +4585,10 @@
         <v>162</v>
       </c>
       <c r="AB38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AR38">
         <v>3</v>
@@ -4631,7 +4629,7 @@
         <v>103</v>
       </c>
       <c r="W39" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X39" t="s">
         <v>144</v>
@@ -4646,37 +4644,37 @@
         <v>162</v>
       </c>
       <c r="AB39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AH39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AQ39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR39">
         <v>3</v>
@@ -4720,7 +4718,7 @@
         <v>116</v>
       </c>
       <c r="W40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X40" t="s">
         <v>149</v>
@@ -4735,10 +4733,10 @@
         <v>162</v>
       </c>
       <c r="AB40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AR40">
         <v>2</v>
@@ -4779,7 +4777,7 @@
         <v>100</v>
       </c>
       <c r="W41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X41" t="s">
         <v>144</v>
@@ -4794,31 +4792,31 @@
         <v>162</v>
       </c>
       <c r="AB41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL41">
         <v>3</v>
       </c>
       <c r="AM41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AN41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AQ41" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR41">
         <v>3</v>
@@ -4859,7 +4857,7 @@
         <v>117</v>
       </c>
       <c r="W42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X42" t="s">
         <v>144</v>
@@ -4874,31 +4872,31 @@
         <v>162</v>
       </c>
       <c r="AB42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO42" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR42">
         <v>3</v>
@@ -4942,7 +4940,7 @@
         <v>99</v>
       </c>
       <c r="W43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X43" t="s">
         <v>145</v>
@@ -4957,13 +4955,13 @@
         <v>162</v>
       </c>
       <c r="AB43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AL43">
         <v>2</v>
@@ -5010,7 +5008,7 @@
         <v>118</v>
       </c>
       <c r="W44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X44" t="s">
         <v>144</v>
@@ -5025,31 +5023,31 @@
         <v>162</v>
       </c>
       <c r="AB44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL44">
         <v>3</v>
       </c>
       <c r="AM44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO44" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AQ44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR44">
         <v>2</v>
@@ -5090,7 +5088,7 @@
         <v>119</v>
       </c>
       <c r="W45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X45" t="s">
         <v>144</v>
@@ -5105,37 +5103,37 @@
         <v>162</v>
       </c>
       <c r="AB45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AF45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AH45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM45" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AN45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AQ45" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR45">
         <v>3</v>
@@ -5173,7 +5171,7 @@
         <v>120</v>
       </c>
       <c r="W46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X46" t="s">
         <v>148</v>
@@ -5188,34 +5186,34 @@
         <v>162</v>
       </c>
       <c r="AB46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM46" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN46" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO46" t="s">
         <v>334</v>
       </c>
-      <c r="AO46" t="s">
-        <v>336</v>
-      </c>
       <c r="AP46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AQ46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -5256,7 +5254,7 @@
         <v>121</v>
       </c>
       <c r="W47" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X47" t="s">
         <v>146</v>
@@ -5271,22 +5269,22 @@
         <v>162</v>
       </c>
       <c r="AB47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AK47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL47">
         <v>4</v>
       </c>
       <c r="AM47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR47">
         <v>3</v>
@@ -5327,7 +5325,7 @@
         <v>122</v>
       </c>
       <c r="W48" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X48" t="s">
         <v>144</v>
@@ -5342,37 +5340,37 @@
         <v>162</v>
       </c>
       <c r="AB48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE48" t="s">
         <v>166</v>
       </c>
-      <c r="AE48" t="s">
-        <v>168</v>
-      </c>
       <c r="AF48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AH48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN48" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP48" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR48">
         <v>2</v>
@@ -5410,7 +5408,7 @@
         <v>123</v>
       </c>
       <c r="W49" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X49" t="s">
         <v>144</v>
@@ -5425,34 +5423,34 @@
         <v>162</v>
       </c>
       <c r="AB49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN49" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO49" t="s">
         <v>334</v>
       </c>
-      <c r="AO49" t="s">
-        <v>336</v>
-      </c>
       <c r="AP49" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR49">
         <v>2</v>
@@ -5490,7 +5488,7 @@
         <v>124</v>
       </c>
       <c r="W50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
         <v>144</v>
@@ -5505,31 +5503,31 @@
         <v>162</v>
       </c>
       <c r="AB50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN50" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO50" t="s">
         <v>334</v>
       </c>
-      <c r="AO50" t="s">
-        <v>336</v>
-      </c>
       <c r="AP50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ50" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR50">
         <v>3</v>
@@ -5573,7 +5571,7 @@
         <v>100</v>
       </c>
       <c r="W51" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X51" t="s">
         <v>149</v>
@@ -5588,10 +5586,10 @@
         <v>162</v>
       </c>
       <c r="AB51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AR51">
         <v>4</v>
@@ -5629,7 +5627,7 @@
         <v>100</v>
       </c>
       <c r="W52" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X52" t="s">
         <v>144</v>
@@ -5644,34 +5642,34 @@
         <v>162</v>
       </c>
       <c r="AB52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AN52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AQ52" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR52">
         <v>3</v>
@@ -5712,7 +5710,7 @@
         <v>98</v>
       </c>
       <c r="W53" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X53" t="s">
         <v>144</v>
@@ -5727,34 +5725,34 @@
         <v>162</v>
       </c>
       <c r="AB53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO53" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR53">
         <v>3</v>
@@ -5795,7 +5793,7 @@
         <v>99</v>
       </c>
       <c r="W54" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X54" t="s">
         <v>145</v>
@@ -5810,16 +5808,16 @@
         <v>162</v>
       </c>
       <c r="AB54" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AK54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AL54">
         <v>4</v>
@@ -5863,7 +5861,7 @@
         <v>99</v>
       </c>
       <c r="W55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X55" t="s">
         <v>146</v>
@@ -5878,22 +5876,22 @@
         <v>162</v>
       </c>
       <c r="AB55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AK55" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL55">
         <v>4</v>
       </c>
       <c r="AM55" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR55">
         <v>3</v>
@@ -5940,7 +5938,7 @@
         <v>99</v>
       </c>
       <c r="W56" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X56" t="s">
         <v>145</v>
@@ -5955,13 +5953,13 @@
         <v>162</v>
       </c>
       <c r="AB56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK56" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL56">
         <v>4</v>
@@ -6005,7 +6003,7 @@
         <v>100</v>
       </c>
       <c r="W57" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X57" t="s">
         <v>144</v>
@@ -6020,31 +6018,31 @@
         <v>162</v>
       </c>
       <c r="AB57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO57" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ57" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR57">
         <v>3</v>
@@ -6082,7 +6080,7 @@
         <v>125</v>
       </c>
       <c r="W58" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X58" t="s">
         <v>144</v>
@@ -6097,34 +6095,34 @@
         <v>162</v>
       </c>
       <c r="AB58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM58" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO58" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AQ58" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR58">
         <v>2</v>
@@ -6162,7 +6160,7 @@
         <v>126</v>
       </c>
       <c r="W59" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X59" t="s">
         <v>144</v>
@@ -6177,34 +6175,34 @@
         <v>162</v>
       </c>
       <c r="AB59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM59" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN59" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ59" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR59">
         <v>3</v>
@@ -6248,7 +6246,7 @@
         <v>103</v>
       </c>
       <c r="W60" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X60" t="s">
         <v>144</v>
@@ -6260,37 +6258,37 @@
         <v>158</v>
       </c>
       <c r="AA60" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AN60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO60" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP60" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR60">
         <v>2</v>
@@ -6331,7 +6329,7 @@
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X61" t="s">
         <v>144</v>
@@ -6346,34 +6344,34 @@
         <v>162</v>
       </c>
       <c r="AB61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AK61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL61">
         <v>3</v>
       </c>
       <c r="AM61" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN61" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ61" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR61">
         <v>2</v>
@@ -6414,7 +6412,7 @@
         <v>99</v>
       </c>
       <c r="W62" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X62" t="s">
         <v>145</v>
@@ -6429,16 +6427,16 @@
         <v>162</v>
       </c>
       <c r="AB62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AK62" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AL62">
         <v>4</v>
@@ -6479,7 +6477,7 @@
         <v>98</v>
       </c>
       <c r="W63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X63" t="s">
         <v>144</v>
@@ -6494,31 +6492,31 @@
         <v>162</v>
       </c>
       <c r="AB63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP63" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AQ63" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR63">
         <v>4</v>
@@ -6556,7 +6554,7 @@
         <v>107</v>
       </c>
       <c r="W64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X64" t="s">
         <v>144</v>
@@ -6571,37 +6569,37 @@
         <v>162</v>
       </c>
       <c r="AB64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC64" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE64" t="s">
         <v>166</v>
       </c>
-      <c r="AE64" t="s">
-        <v>168</v>
-      </c>
       <c r="AF64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH64" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AM64" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO64" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP64" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ64" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR64">
         <v>3</v>
@@ -6642,7 +6640,7 @@
         <v>127</v>
       </c>
       <c r="W65" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X65" t="s">
         <v>146</v>
@@ -6657,19 +6655,19 @@
         <v>162</v>
       </c>
       <c r="AB65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL65">
         <v>3</v>
       </c>
       <c r="AM65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AR65">
         <v>3</v>
@@ -6710,7 +6708,7 @@
         <v>128</v>
       </c>
       <c r="W66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X66" t="s">
         <v>145</v>
@@ -6725,13 +6723,13 @@
         <v>162</v>
       </c>
       <c r="AB66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AL66">
         <v>1</v>
@@ -6775,7 +6773,7 @@
         <v>98</v>
       </c>
       <c r="W67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X67" t="s">
         <v>145</v>
@@ -6790,13 +6788,13 @@
         <v>162</v>
       </c>
       <c r="AB67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK67" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AL67">
         <v>3</v>
@@ -6837,7 +6835,7 @@
         <v>102</v>
       </c>
       <c r="W68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X68" t="s">
         <v>148</v>
@@ -6852,34 +6850,34 @@
         <v>162</v>
       </c>
       <c r="AB68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC68" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE68" t="s">
         <v>166</v>
       </c>
-      <c r="AE68" t="s">
-        <v>168</v>
-      </c>
       <c r="AF68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM68" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN68" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO68" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR68">
         <v>3</v>
@@ -6920,7 +6918,7 @@
         <v>99</v>
       </c>
       <c r="W69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X69" t="s">
         <v>145</v>
@@ -6935,13 +6933,13 @@
         <v>162</v>
       </c>
       <c r="AB69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL69">
         <v>4</v>
@@ -6985,7 +6983,7 @@
         <v>106</v>
       </c>
       <c r="W70" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X70" t="s">
         <v>148</v>
@@ -7000,37 +6998,37 @@
         <v>162</v>
       </c>
       <c r="AB70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AM70" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AN70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP70" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ70" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR70">
         <v>3</v>
@@ -7071,7 +7069,7 @@
         <v>106</v>
       </c>
       <c r="W71" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X71" t="s">
         <v>144</v>
@@ -7083,40 +7081,40 @@
         <v>158</v>
       </c>
       <c r="AA71" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB71" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AH71" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM71" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AN71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO71" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP71" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AQ71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR71">
         <v>3</v>
@@ -7157,7 +7155,7 @@
         <v>99</v>
       </c>
       <c r="W72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X72" t="s">
         <v>145</v>
@@ -7172,16 +7170,16 @@
         <v>162</v>
       </c>
       <c r="AB72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH72" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AK72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AL72">
         <v>4</v>
@@ -7222,7 +7220,7 @@
         <v>106</v>
       </c>
       <c r="W73" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X73" t="s">
         <v>144</v>
@@ -7237,31 +7235,31 @@
         <v>162</v>
       </c>
       <c r="AB73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO73" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP73" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ73" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -7302,7 +7300,7 @@
         <v>129</v>
       </c>
       <c r="W74" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X74" t="s">
         <v>145</v>
@@ -7317,13 +7315,13 @@
         <v>162</v>
       </c>
       <c r="AB74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL74">
         <v>3</v>
@@ -7364,7 +7362,7 @@
         <v>100</v>
       </c>
       <c r="W75" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X75" t="s">
         <v>144</v>
@@ -7379,34 +7377,34 @@
         <v>162</v>
       </c>
       <c r="AB75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC75" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP75" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR75">
         <v>3</v>
@@ -7447,7 +7445,7 @@
         <v>98</v>
       </c>
       <c r="W76" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X76" t="s">
         <v>145</v>
@@ -7462,13 +7460,13 @@
         <v>162</v>
       </c>
       <c r="AB76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK76" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AL76">
         <v>3</v>
@@ -7509,7 +7507,7 @@
         <v>107</v>
       </c>
       <c r="W77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -7524,34 +7522,34 @@
         <v>162</v>
       </c>
       <c r="AB77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG77" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AN77" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP77" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AQ77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -7604,16 +7602,16 @@
         <v>162</v>
       </c>
       <c r="AB78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AJ78" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AK78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL78">
         <v>4</v>
@@ -7657,7 +7655,7 @@
         <v>99</v>
       </c>
       <c r="W79" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X79" t="s">
         <v>144</v>
@@ -7672,37 +7670,37 @@
         <v>162</v>
       </c>
       <c r="AB79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AH79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM79" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AN79" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO79" t="s">
         <v>334</v>
       </c>
-      <c r="AO79" t="s">
-        <v>336</v>
-      </c>
       <c r="AP79" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AQ79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR79">
         <v>4</v>
@@ -7743,7 +7741,7 @@
         <v>130</v>
       </c>
       <c r="W80" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X80" t="s">
         <v>144</v>
@@ -7758,34 +7756,34 @@
         <v>162</v>
       </c>
       <c r="AB80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF80" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM80" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN80" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP80" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ80" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR80">
         <v>3</v>
@@ -7832,7 +7830,7 @@
         <v>107</v>
       </c>
       <c r="W81" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X81" t="s">
         <v>144</v>
@@ -7847,34 +7845,34 @@
         <v>162</v>
       </c>
       <c r="AB81" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AM81" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN81" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO81" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP81" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AQ81" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR81">
         <v>2</v>
@@ -7915,7 +7913,7 @@
         <v>104</v>
       </c>
       <c r="W82" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X82" t="s">
         <v>144</v>
@@ -7927,40 +7925,40 @@
         <v>157</v>
       </c>
       <c r="AA82" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB82" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM82" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AN82" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP82" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AQ82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR82">
         <v>3</v>
@@ -8004,7 +8002,7 @@
         <v>98</v>
       </c>
       <c r="W83" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X83" t="s">
         <v>144</v>
@@ -8019,31 +8017,31 @@
         <v>162</v>
       </c>
       <c r="AB83" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AL83">
         <v>3</v>
       </c>
       <c r="AM83" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AN83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP83" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AQ83" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR83">
         <v>4</v>
@@ -8084,7 +8082,7 @@
         <v>131</v>
       </c>
       <c r="W84" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X84" t="s">
         <v>144</v>
@@ -8099,34 +8097,34 @@
         <v>162</v>
       </c>
       <c r="AB84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC84" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE84" t="s">
         <v>166</v>
       </c>
-      <c r="AE84" t="s">
-        <v>168</v>
-      </c>
       <c r="AF84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG84" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO84" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP84" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ84" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR84">
         <v>3</v>
@@ -8164,7 +8162,7 @@
         <v>132</v>
       </c>
       <c r="W85" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X85" t="s">
         <v>144</v>
@@ -8179,34 +8177,34 @@
         <v>162</v>
       </c>
       <c r="AB85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE85" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AF85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM85" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AN85" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO85" t="s">
         <v>334</v>
       </c>
-      <c r="AO85" t="s">
-        <v>336</v>
-      </c>
       <c r="AP85" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AQ85" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR85">
         <v>3</v>
@@ -8244,7 +8242,7 @@
         <v>133</v>
       </c>
       <c r="W86" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X86" t="s">
         <v>148</v>
@@ -8259,34 +8257,34 @@
         <v>162</v>
       </c>
       <c r="AB86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE86" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF86" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AN86" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO86" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ86" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR86">
         <v>3</v>
@@ -8324,7 +8322,7 @@
         <v>134</v>
       </c>
       <c r="W87" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X87" t="s">
         <v>144</v>
@@ -8339,31 +8337,31 @@
         <v>162</v>
       </c>
       <c r="AB87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN87" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO87" t="s">
         <v>334</v>
       </c>
-      <c r="AO87" t="s">
-        <v>336</v>
-      </c>
       <c r="AP87" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AQ87" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR87">
         <v>4</v>
@@ -8404,7 +8402,7 @@
         <v>106</v>
       </c>
       <c r="W88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X88" t="s">
         <v>146</v>
@@ -8419,19 +8417,19 @@
         <v>162</v>
       </c>
       <c r="AB88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AL88">
         <v>2</v>
       </c>
       <c r="AM88" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AR88">
         <v>2</v>
@@ -8472,7 +8470,7 @@
         <v>98</v>
       </c>
       <c r="W89" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X89" t="s">
         <v>145</v>
@@ -8487,16 +8485,16 @@
         <v>162</v>
       </c>
       <c r="AB89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AK89" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AL89">
         <v>1</v>
@@ -8540,7 +8538,7 @@
         <v>107</v>
       </c>
       <c r="W90" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X90" t="s">
         <v>145</v>
@@ -8555,13 +8553,13 @@
         <v>162</v>
       </c>
       <c r="AB90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK90" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL90">
         <v>3</v>
@@ -8605,7 +8603,7 @@
         <v>135</v>
       </c>
       <c r="W91" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X91" t="s">
         <v>146</v>
@@ -8620,19 +8618,19 @@
         <v>162</v>
       </c>
       <c r="AB91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK91" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL91">
         <v>4</v>
       </c>
       <c r="AM91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR91">
         <v>2</v>
@@ -8673,7 +8671,7 @@
         <v>98</v>
       </c>
       <c r="W92" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X92" t="s">
         <v>145</v>
@@ -8688,13 +8686,13 @@
         <v>162</v>
       </c>
       <c r="AB92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL92">
         <v>3</v>
@@ -8735,7 +8733,7 @@
         <v>98</v>
       </c>
       <c r="W93" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X93" t="s">
         <v>144</v>
@@ -8750,31 +8748,31 @@
         <v>162</v>
       </c>
       <c r="AB93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC93" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AL93">
         <v>2</v>
       </c>
       <c r="AM93" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO93" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP93" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AQ93" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR93">
         <v>3</v>
@@ -8815,7 +8813,7 @@
         <v>99</v>
       </c>
       <c r="W94" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X94" t="s">
         <v>146</v>
@@ -8830,19 +8828,19 @@
         <v>162</v>
       </c>
       <c r="AB94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK94" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AL94">
         <v>3</v>
       </c>
       <c r="AM94" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AR94">
         <v>3</v>
@@ -8883,7 +8881,7 @@
         <v>117</v>
       </c>
       <c r="W95" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X95" t="s">
         <v>144</v>
@@ -8898,37 +8896,37 @@
         <v>162</v>
       </c>
       <c r="AB95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF95" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AH95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AM95" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO95" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP95" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR95">
         <v>4</v>
@@ -8969,7 +8967,7 @@
         <v>98</v>
       </c>
       <c r="W96" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X96" t="s">
         <v>145</v>
@@ -8984,13 +8982,13 @@
         <v>162</v>
       </c>
       <c r="AB96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL96">
         <v>2</v>
@@ -9031,7 +9029,7 @@
         <v>98</v>
       </c>
       <c r="W97" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X97" t="s">
         <v>145</v>
@@ -9046,13 +9044,13 @@
         <v>162</v>
       </c>
       <c r="AB97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC97" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK97" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL97">
         <v>3</v>
@@ -9096,7 +9094,7 @@
         <v>136</v>
       </c>
       <c r="W98" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X98" t="s">
         <v>145</v>
@@ -9111,13 +9109,13 @@
         <v>162</v>
       </c>
       <c r="AB98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK98" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL98">
         <v>2</v>
@@ -9173,34 +9171,34 @@
         <v>162</v>
       </c>
       <c r="AB99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC99" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF99" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AM99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN99" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO99" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP99" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AQ99" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR99">
         <v>3</v>
@@ -9241,7 +9239,7 @@
         <v>103</v>
       </c>
       <c r="W100" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X100" t="s">
         <v>144</v>
@@ -9256,34 +9254,34 @@
         <v>162</v>
       </c>
       <c r="AB100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AK100" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AL100">
         <v>3</v>
       </c>
       <c r="AM100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AN100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP100" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ100" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR100">
         <v>3</v>
@@ -9324,7 +9322,7 @@
         <v>102</v>
       </c>
       <c r="W101" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X101" t="s">
         <v>148</v>
@@ -9336,37 +9334,37 @@
         <v>161</v>
       </c>
       <c r="AA101" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AK101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL101">
         <v>2</v>
       </c>
       <c r="AM101" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AN101" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO101" t="s">
         <v>334</v>
       </c>
-      <c r="AO101" t="s">
-        <v>336</v>
-      </c>
       <c r="AP101" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AQ101" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR101">
         <v>3</v>
@@ -9407,7 +9405,7 @@
         <v>103</v>
       </c>
       <c r="W102" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X102" t="s">
         <v>144</v>
@@ -9422,34 +9420,34 @@
         <v>162</v>
       </c>
       <c r="AB102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM102" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN102" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO102" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP102" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AQ102" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR102">
         <v>3</v>
@@ -9490,7 +9488,7 @@
         <v>99</v>
       </c>
       <c r="W103" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X103" t="s">
         <v>145</v>
@@ -9505,16 +9503,16 @@
         <v>162</v>
       </c>
       <c r="AB103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH103" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AK103" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AL103">
         <v>1</v>
@@ -9558,7 +9556,7 @@
         <v>137</v>
       </c>
       <c r="W104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X104" t="s">
         <v>144</v>
@@ -9570,37 +9568,37 @@
         <v>158</v>
       </c>
       <c r="AA104" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB104" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC104" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE104" t="s">
         <v>166</v>
       </c>
-      <c r="AE104" t="s">
-        <v>168</v>
-      </c>
       <c r="AF104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG104" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM104" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AN104" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO104" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP104" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ104" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR104">
         <v>1</v>
@@ -9641,7 +9639,7 @@
         <v>116</v>
       </c>
       <c r="W105" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X105" t="s">
         <v>144</v>
@@ -9656,34 +9654,34 @@
         <v>162</v>
       </c>
       <c r="AB105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AK105" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL105">
         <v>4</v>
       </c>
       <c r="AM105" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN105" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>334</v>
+      </c>
+      <c r="AP105" t="s">
         <v>335</v>
       </c>
-      <c r="AO105" t="s">
-        <v>336</v>
-      </c>
-      <c r="AP105" t="s">
-        <v>337</v>
-      </c>
       <c r="AQ105" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR105">
         <v>4</v>
@@ -9721,7 +9719,7 @@
         <v>124</v>
       </c>
       <c r="W106" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X106" t="s">
         <v>144</v>
@@ -9736,34 +9734,34 @@
         <v>162</v>
       </c>
       <c r="AB106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC106" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE106" t="s">
         <v>166</v>
       </c>
-      <c r="AE106" t="s">
-        <v>168</v>
-      </c>
       <c r="AF106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG106" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM106" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN106" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO106" t="s">
         <v>334</v>
       </c>
-      <c r="AO106" t="s">
-        <v>336</v>
-      </c>
       <c r="AP106" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ106" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR106">
         <v>1</v>
@@ -9801,7 +9799,7 @@
         <v>98</v>
       </c>
       <c r="W107" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X107" t="s">
         <v>144</v>
@@ -9816,34 +9814,34 @@
         <v>162</v>
       </c>
       <c r="AB107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG107" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM107" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN107" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO107" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP107" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ107" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR107">
         <v>3</v>
@@ -9881,7 +9879,7 @@
         <v>98</v>
       </c>
       <c r="W108" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X108" t="s">
         <v>144</v>
@@ -9893,37 +9891,37 @@
         <v>157</v>
       </c>
       <c r="AA108" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC108" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH108" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="AM108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN108" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO108" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP108" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ108" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR108">
         <v>4</v>
@@ -9964,7 +9962,7 @@
         <v>100</v>
       </c>
       <c r="W109" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X109" t="s">
         <v>146</v>
@@ -9979,19 +9977,19 @@
         <v>162</v>
       </c>
       <c r="AB109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC109" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK109" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL109">
         <v>4</v>
       </c>
       <c r="AM109" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR109">
         <v>4</v>
@@ -10032,7 +10030,7 @@
         <v>138</v>
       </c>
       <c r="W110" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X110" t="s">
         <v>144</v>
@@ -10047,37 +10045,37 @@
         <v>162</v>
       </c>
       <c r="AB110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC110" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE110" t="s">
         <v>166</v>
       </c>
-      <c r="AE110" t="s">
-        <v>168</v>
-      </c>
       <c r="AF110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH110" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM110" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AN110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP110" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AQ110" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR110">
         <v>3</v>
@@ -10118,7 +10116,7 @@
         <v>139</v>
       </c>
       <c r="W111" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X111" t="s">
         <v>144</v>
@@ -10133,37 +10131,37 @@
         <v>162</v>
       </c>
       <c r="AB111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC111" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE111" t="s">
         <v>166</v>
       </c>
-      <c r="AE111" t="s">
-        <v>168</v>
-      </c>
       <c r="AF111" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH111" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AM111" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN111" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO111" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ111" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR111">
         <v>1</v>
@@ -10201,7 +10199,7 @@
         <v>118</v>
       </c>
       <c r="W112" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X112" t="s">
         <v>150</v>
@@ -10216,13 +10214,13 @@
         <v>162</v>
       </c>
       <c r="AB112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AJ112" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR112">
         <v>3</v>
@@ -10260,7 +10258,7 @@
         <v>140</v>
       </c>
       <c r="W113" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X113" t="s">
         <v>144</v>
@@ -10275,34 +10273,34 @@
         <v>162</v>
       </c>
       <c r="AB113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE113" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF113" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM113" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO113" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP113" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ113" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR113">
         <v>4</v>
@@ -10343,7 +10341,7 @@
         <v>123</v>
       </c>
       <c r="W114" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X114" t="s">
         <v>144</v>
@@ -10358,31 +10356,31 @@
         <v>162</v>
       </c>
       <c r="AB114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK114" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL114">
         <v>4</v>
       </c>
       <c r="AM114" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AN114" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO114" t="s">
         <v>334</v>
       </c>
-      <c r="AO114" t="s">
-        <v>336</v>
-      </c>
       <c r="AP114" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AQ114" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR114">
         <v>4</v>
@@ -10420,7 +10418,7 @@
         <v>103</v>
       </c>
       <c r="W115" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X115" t="s">
         <v>146</v>
@@ -10435,22 +10433,22 @@
         <v>162</v>
       </c>
       <c r="AB115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH115" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AK115" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL115">
         <v>2</v>
       </c>
       <c r="AM115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AR115">
         <v>2</v>
@@ -10488,7 +10486,7 @@
         <v>103</v>
       </c>
       <c r="W116" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X116" t="s">
         <v>144</v>
@@ -10503,34 +10501,34 @@
         <v>162</v>
       </c>
       <c r="AB116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE116" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF116" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AM116" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AN116" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO116" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP116" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AQ116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR116">
         <v>2</v>
@@ -10568,7 +10566,7 @@
         <v>124</v>
       </c>
       <c r="W117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X117" t="s">
         <v>144</v>
@@ -10583,34 +10581,34 @@
         <v>162</v>
       </c>
       <c r="AB117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC117" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE117" t="s">
         <v>166</v>
       </c>
-      <c r="AE117" t="s">
-        <v>168</v>
-      </c>
       <c r="AF117" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM117" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN117" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO117" t="s">
         <v>334</v>
       </c>
-      <c r="AO117" t="s">
-        <v>336</v>
-      </c>
       <c r="AP117" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR117">
         <v>3</v>
@@ -10651,7 +10649,7 @@
         <v>122</v>
       </c>
       <c r="W118" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X118" t="s">
         <v>145</v>
@@ -10666,13 +10664,13 @@
         <v>162</v>
       </c>
       <c r="AB118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK118" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL118">
         <v>1</v>
@@ -10716,7 +10714,7 @@
         <v>98</v>
       </c>
       <c r="W119" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X119" t="s">
         <v>144</v>
@@ -10731,34 +10729,34 @@
         <v>162</v>
       </c>
       <c r="AB119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE119" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF119" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM119" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AN119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO119" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP119" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ119" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR119">
         <v>3</v>
@@ -10802,7 +10800,7 @@
         <v>100</v>
       </c>
       <c r="W120" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X120" t="s">
         <v>144</v>
@@ -10817,37 +10815,37 @@
         <v>162</v>
       </c>
       <c r="AB120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE120" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF120" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH120" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AM120" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AN120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO120" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP120" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AQ120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR120">
         <v>4</v>
@@ -10885,7 +10883,7 @@
         <v>98</v>
       </c>
       <c r="W121" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X121" t="s">
         <v>146</v>
@@ -10900,19 +10898,19 @@
         <v>162</v>
       </c>
       <c r="AB121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK121" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL121">
         <v>4</v>
       </c>
       <c r="AM121" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AR121">
         <v>3</v>
@@ -10953,7 +10951,7 @@
         <v>141</v>
       </c>
       <c r="W122" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X122" t="s">
         <v>146</v>
@@ -10968,22 +10966,22 @@
         <v>162</v>
       </c>
       <c r="AB122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH122" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AK122" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AL122">
         <v>3</v>
       </c>
       <c r="AM122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AR122">
         <v>4</v>
@@ -11021,7 +11019,7 @@
         <v>100</v>
       </c>
       <c r="W123" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X123" t="s">
         <v>144</v>
@@ -11036,34 +11034,34 @@
         <v>162</v>
       </c>
       <c r="AB123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC123" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH123" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AK123" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL123">
         <v>4</v>
       </c>
       <c r="AM123" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN123" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO123" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP123" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AQ123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR123">
         <v>1</v>
@@ -11104,7 +11102,7 @@
         <v>100</v>
       </c>
       <c r="W124" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X124" t="s">
         <v>144</v>
@@ -11116,37 +11114,37 @@
         <v>158</v>
       </c>
       <c r="AA124" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE124" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF124" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG124" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM124" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN124" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO124" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP124" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ124" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR124">
         <v>3</v>
@@ -11190,7 +11188,7 @@
         <v>99</v>
       </c>
       <c r="W125" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X125" t="s">
         <v>145</v>
@@ -11205,16 +11203,16 @@
         <v>162</v>
       </c>
       <c r="AB125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC125" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH125" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AK125" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL125">
         <v>2</v>
@@ -11261,7 +11259,7 @@
         <v>99</v>
       </c>
       <c r="W126" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X126" t="s">
         <v>145</v>
@@ -11276,16 +11274,16 @@
         <v>162</v>
       </c>
       <c r="AB126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC126" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AK126" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL126">
         <v>2</v>
@@ -11326,7 +11324,7 @@
         <v>106</v>
       </c>
       <c r="W127" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X127" t="s">
         <v>144</v>
@@ -11341,34 +11339,34 @@
         <v>162</v>
       </c>
       <c r="AB127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE127" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF127" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG127" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM127" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO127" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP127" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AQ127" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR127">
         <v>4</v>
@@ -11409,7 +11407,7 @@
         <v>120</v>
       </c>
       <c r="W128" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X128" t="s">
         <v>144</v>
@@ -11421,37 +11419,37 @@
         <v>157</v>
       </c>
       <c r="AA128" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC128" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE128" t="s">
         <v>166</v>
       </c>
-      <c r="AE128" t="s">
-        <v>168</v>
-      </c>
       <c r="AF128" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG128" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AM128" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN128" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO128" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP128" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ128" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR128">
         <v>2</v>
@@ -11492,7 +11490,7 @@
         <v>99</v>
       </c>
       <c r="W129" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X129" t="s">
         <v>145</v>
@@ -11504,16 +11502,16 @@
         <v>158</v>
       </c>
       <c r="AA129" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB129" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="AC129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK129" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL129">
         <v>1</v>
@@ -11557,7 +11555,7 @@
         <v>111</v>
       </c>
       <c r="W130" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X130" t="s">
         <v>145</v>
@@ -11572,16 +11570,16 @@
         <v>162</v>
       </c>
       <c r="AB130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC130" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH130" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AK130" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AL130">
         <v>3</v>

--- a/Data source/Risposte_unificate.xlsx
+++ b/Data source/Risposte_unificate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\Projects\Bike2Work\Data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19704D-8EED-4123-8ADF-4FEAFB332A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33271BDF-CCBC-441F-B7F8-8F557F3C414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="372">
   <si>
     <t>Informazioni cronologiche</t>
   </si>
@@ -511,7 +511,13 @@
     <t>Diretto (casa - lavoro)</t>
   </si>
   <si>
+    <t>Indiretto (casa - accompagnare figli a scuola, commissioni, altro - lavoro)</t>
+  </si>
+  <si>
     <t>Diretto (lavoro - casa)</t>
+  </si>
+  <si>
+    <t>Indiretto (lavoro - accompagnare figli a scuola, commissioni, altro - casa)</t>
   </si>
   <si>
     <t>Caserma</t>
@@ -1132,9 +1138,6 @@
   </si>
   <si>
     <t>No in ogni caso</t>
-  </si>
-  <si>
-    <t>Indiretto (casa - accompagnare figli a scuola; commissioni; altro - lavoro)</t>
   </si>
 </sst>
 </file>
@@ -1508,15 +1511,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X24" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="23" max="23" width="48.26953125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="75" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="61.7265625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="173.36328125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="255.6328125" bestFit="1" customWidth="1"/>
@@ -1699,7 +1701,7 @@
         <v>98</v>
       </c>
       <c r="W2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X2" t="s">
         <v>144</v>
@@ -1714,37 +1716,37 @@
         <v>162</v>
       </c>
       <c r="AB2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AH2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR2">
         <v>3</v>
@@ -1788,7 +1790,7 @@
         <v>98</v>
       </c>
       <c r="W3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X3" t="s">
         <v>144</v>
@@ -1803,34 +1805,34 @@
         <v>162</v>
       </c>
       <c r="AB3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AM3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AQ3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR3">
         <v>2</v>
@@ -1874,7 +1876,7 @@
         <v>98</v>
       </c>
       <c r="W4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X4" t="s">
         <v>144</v>
@@ -1889,34 +1891,34 @@
         <v>162</v>
       </c>
       <c r="AB4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AN4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AQ4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR4">
         <v>4</v>
@@ -1960,7 +1962,7 @@
         <v>99</v>
       </c>
       <c r="W5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X5" t="s">
         <v>145</v>
@@ -1975,13 +1977,13 @@
         <v>162</v>
       </c>
       <c r="AB5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AL5">
         <v>4</v>
@@ -2028,7 +2030,7 @@
         <v>99</v>
       </c>
       <c r="W6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X6" t="s">
         <v>145</v>
@@ -2040,16 +2042,16 @@
         <v>158</v>
       </c>
       <c r="AA6" t="s">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="AB6" t="s">
-        <v>370</v>
+        <v>165</v>
       </c>
       <c r="AC6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL6">
         <v>2</v>
@@ -2099,7 +2101,7 @@
         <v>98</v>
       </c>
       <c r="W7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X7" t="s">
         <v>145</v>
@@ -2114,16 +2116,16 @@
         <v>162</v>
       </c>
       <c r="AB7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AK7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL7">
         <v>4</v>
@@ -2170,7 +2172,7 @@
         <v>100</v>
       </c>
       <c r="W8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X8" t="s">
         <v>144</v>
@@ -2185,34 +2187,34 @@
         <v>162</v>
       </c>
       <c r="AB8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AM8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AQ8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR8">
         <v>3</v>
@@ -2256,7 +2258,7 @@
         <v>101</v>
       </c>
       <c r="W9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X9" t="s">
         <v>145</v>
@@ -2271,13 +2273,13 @@
         <v>162</v>
       </c>
       <c r="AB9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL9">
         <v>4</v>
@@ -2324,7 +2326,7 @@
         <v>99</v>
       </c>
       <c r="W10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X10" t="s">
         <v>145</v>
@@ -2339,13 +2341,13 @@
         <v>162</v>
       </c>
       <c r="AB10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL10">
         <v>3</v>
@@ -2404,19 +2406,19 @@
         <v>162</v>
       </c>
       <c r="AB11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL11">
         <v>4</v>
       </c>
       <c r="AM11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AR11">
         <v>4</v>
@@ -2472,19 +2474,19 @@
         <v>162</v>
       </c>
       <c r="AB12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AJ12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AK12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL12">
         <v>3</v>
@@ -2531,7 +2533,7 @@
         <v>103</v>
       </c>
       <c r="W13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X13" t="s">
         <v>144</v>
@@ -2546,37 +2548,37 @@
         <v>162</v>
       </c>
       <c r="AB13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AF13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AH13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AM13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AQ13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR13">
         <v>3</v>
@@ -2632,37 +2634,37 @@
         <v>162</v>
       </c>
       <c r="AB14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AH14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AN14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO14" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP14" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR14">
         <v>3</v>
@@ -2703,7 +2705,7 @@
         <v>104</v>
       </c>
       <c r="W15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X15" t="s">
         <v>144</v>
@@ -2718,34 +2720,34 @@
         <v>162</v>
       </c>
       <c r="AB15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AQ15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR15">
         <v>1</v>
@@ -2786,7 +2788,7 @@
         <v>98</v>
       </c>
       <c r="W16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X16" t="s">
         <v>144</v>
@@ -2801,34 +2803,34 @@
         <v>162</v>
       </c>
       <c r="AB16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AN16" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR16">
         <v>2</v>
@@ -2869,7 +2871,7 @@
         <v>105</v>
       </c>
       <c r="W17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X17" t="s">
         <v>144</v>
@@ -2884,34 +2886,34 @@
         <v>162</v>
       </c>
       <c r="AB17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR17">
         <v>1</v>
@@ -2955,7 +2957,7 @@
         <v>106</v>
       </c>
       <c r="W18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X18" t="s">
         <v>144</v>
@@ -2970,31 +2972,31 @@
         <v>162</v>
       </c>
       <c r="AB18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AQ18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR18">
         <v>2</v>
@@ -3035,7 +3037,7 @@
         <v>107</v>
       </c>
       <c r="W19" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X19" t="s">
         <v>144</v>
@@ -3050,34 +3052,34 @@
         <v>162</v>
       </c>
       <c r="AB19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP19" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR19">
         <v>1</v>
@@ -3118,7 +3120,7 @@
         <v>103</v>
       </c>
       <c r="W20" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X20" t="s">
         <v>144</v>
@@ -3133,34 +3135,34 @@
         <v>162</v>
       </c>
       <c r="AB20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO20" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AQ20" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR20">
         <v>2</v>
@@ -3201,7 +3203,7 @@
         <v>108</v>
       </c>
       <c r="W21" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X21" t="s">
         <v>144</v>
@@ -3213,40 +3215,40 @@
         <v>158</v>
       </c>
       <c r="AA21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>370</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>227</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>312</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>335</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>368</v>
       </c>
       <c r="AR21">
         <v>3</v>
@@ -3287,7 +3289,7 @@
         <v>109</v>
       </c>
       <c r="W22" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X22" t="s">
         <v>144</v>
@@ -3299,40 +3301,40 @@
         <v>157</v>
       </c>
       <c r="AA22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>370</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>313</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>342</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>368</v>
       </c>
       <c r="AR22">
         <v>4</v>
@@ -3373,7 +3375,7 @@
         <v>100</v>
       </c>
       <c r="W23" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X23" t="s">
         <v>144</v>
@@ -3388,34 +3390,34 @@
         <v>162</v>
       </c>
       <c r="AB23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN23" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO23" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ23" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -3456,7 +3458,7 @@
         <v>110</v>
       </c>
       <c r="W24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X24" t="s">
         <v>144</v>
@@ -3471,34 +3473,34 @@
         <v>162</v>
       </c>
       <c r="AB24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO24" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP24" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AQ24" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR24">
         <v>4</v>
@@ -3539,7 +3541,7 @@
         <v>98</v>
       </c>
       <c r="W25" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X25" t="s">
         <v>144</v>
@@ -3554,34 +3556,34 @@
         <v>162</v>
       </c>
       <c r="AB25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>342</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>370</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>329</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>340</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>368</v>
       </c>
       <c r="AR25">
         <v>3</v>
@@ -3625,7 +3627,7 @@
         <v>111</v>
       </c>
       <c r="W26" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X26" t="s">
         <v>146</v>
@@ -3640,19 +3642,19 @@
         <v>162</v>
       </c>
       <c r="AB26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AL26">
         <v>2</v>
       </c>
       <c r="AM26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AR26">
         <v>3</v>
@@ -3693,7 +3695,7 @@
         <v>112</v>
       </c>
       <c r="W27" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X27" t="s">
         <v>144</v>
@@ -3708,34 +3710,34 @@
         <v>162</v>
       </c>
       <c r="AB27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM27" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO27" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP27" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ27" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR27">
         <v>3</v>
@@ -3779,7 +3781,7 @@
         <v>113</v>
       </c>
       <c r="W28" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X28" t="s">
         <v>144</v>
@@ -3794,34 +3796,34 @@
         <v>162</v>
       </c>
       <c r="AB28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG28" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM28" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP28" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ28" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR28">
         <v>3</v>
@@ -3862,7 +3864,7 @@
         <v>100</v>
       </c>
       <c r="W29" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X29" t="s">
         <v>144</v>
@@ -3877,34 +3879,34 @@
         <v>162</v>
       </c>
       <c r="AB29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO29" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP29" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR29">
         <v>3</v>
@@ -3948,7 +3950,7 @@
         <v>107</v>
       </c>
       <c r="W30" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X30" t="s">
         <v>144</v>
@@ -3963,37 +3965,37 @@
         <v>162</v>
       </c>
       <c r="AB30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM30" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP30" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AQ30" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR30">
         <v>3</v>
@@ -4037,7 +4039,7 @@
         <v>98</v>
       </c>
       <c r="W31" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X31" t="s">
         <v>148</v>
@@ -4049,37 +4051,37 @@
         <v>158</v>
       </c>
       <c r="AA31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ31" t="s">
         <v>370</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>329</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>339</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>368</v>
       </c>
       <c r="AR31">
         <v>4</v>
@@ -4123,7 +4125,7 @@
         <v>98</v>
       </c>
       <c r="W32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X32" t="s">
         <v>144</v>
@@ -4138,34 +4140,34 @@
         <v>162</v>
       </c>
       <c r="AB32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM32" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO32" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP32" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR32">
         <v>4</v>
@@ -4209,7 +4211,7 @@
         <v>114</v>
       </c>
       <c r="W33" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X33" t="s">
         <v>145</v>
@@ -4224,16 +4226,16 @@
         <v>162</v>
       </c>
       <c r="AB33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK33" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL33">
         <v>3</v>
@@ -4280,7 +4282,7 @@
         <v>115</v>
       </c>
       <c r="W34" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X34" t="s">
         <v>145</v>
@@ -4295,13 +4297,13 @@
         <v>162</v>
       </c>
       <c r="AB34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK34" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL34">
         <v>2</v>
@@ -4345,7 +4347,7 @@
         <v>106</v>
       </c>
       <c r="W35" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X35" t="s">
         <v>144</v>
@@ -4360,31 +4362,31 @@
         <v>162</v>
       </c>
       <c r="AB35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK35" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN35" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO35" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP35" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AQ35" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR35">
         <v>4</v>
@@ -4428,7 +4430,7 @@
         <v>98</v>
       </c>
       <c r="W36" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X36" t="s">
         <v>146</v>
@@ -4440,22 +4442,22 @@
         <v>158</v>
       </c>
       <c r="AA36" t="s">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="AB36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL36">
         <v>3</v>
       </c>
       <c r="AM36" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AR36">
         <v>4</v>
@@ -4499,7 +4501,7 @@
         <v>99</v>
       </c>
       <c r="W37" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X37" t="s">
         <v>145</v>
@@ -4514,16 +4516,16 @@
         <v>162</v>
       </c>
       <c r="AB37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH37" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AK37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL37">
         <v>3</v>
@@ -4570,7 +4572,7 @@
         <v>114</v>
       </c>
       <c r="W38" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X38" t="s">
         <v>149</v>
@@ -4585,10 +4587,10 @@
         <v>162</v>
       </c>
       <c r="AB38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AR38">
         <v>3</v>
@@ -4629,7 +4631,7 @@
         <v>103</v>
       </c>
       <c r="W39" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X39" t="s">
         <v>144</v>
@@ -4644,37 +4646,37 @@
         <v>162</v>
       </c>
       <c r="AB39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF39" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AH39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN39" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP39" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AQ39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR39">
         <v>3</v>
@@ -4718,7 +4720,7 @@
         <v>116</v>
       </c>
       <c r="W40" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X40" t="s">
         <v>149</v>
@@ -4733,10 +4735,10 @@
         <v>162</v>
       </c>
       <c r="AB40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AR40">
         <v>2</v>
@@ -4777,7 +4779,7 @@
         <v>100</v>
       </c>
       <c r="W41" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X41" t="s">
         <v>144</v>
@@ -4792,31 +4794,31 @@
         <v>162</v>
       </c>
       <c r="AB41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK41" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL41">
         <v>3</v>
       </c>
       <c r="AM41" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN41" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO41" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP41" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AQ41" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR41">
         <v>3</v>
@@ -4857,7 +4859,7 @@
         <v>117</v>
       </c>
       <c r="W42" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X42" t="s">
         <v>144</v>
@@ -4872,31 +4874,31 @@
         <v>162</v>
       </c>
       <c r="AB42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK42" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN42" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO42" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP42" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ42" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR42">
         <v>3</v>
@@ -4940,7 +4942,7 @@
         <v>99</v>
       </c>
       <c r="W43" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X43" t="s">
         <v>145</v>
@@ -4955,13 +4957,13 @@
         <v>162</v>
       </c>
       <c r="AB43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK43" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL43">
         <v>2</v>
@@ -5008,7 +5010,7 @@
         <v>118</v>
       </c>
       <c r="W44" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X44" t="s">
         <v>144</v>
@@ -5023,31 +5025,31 @@
         <v>162</v>
       </c>
       <c r="AB44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK44" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL44">
         <v>3</v>
       </c>
       <c r="AM44" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN44" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO44" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP44" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AQ44" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR44">
         <v>2</v>
@@ -5088,7 +5090,7 @@
         <v>119</v>
       </c>
       <c r="W45" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X45" t="s">
         <v>144</v>
@@ -5103,37 +5105,37 @@
         <v>162</v>
       </c>
       <c r="AB45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG45" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AH45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM45" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN45" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO45" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP45" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AQ45" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR45">
         <v>3</v>
@@ -5171,7 +5173,7 @@
         <v>120</v>
       </c>
       <c r="W46" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X46" t="s">
         <v>148</v>
@@ -5186,34 +5188,34 @@
         <v>162</v>
       </c>
       <c r="AB46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF46" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG46" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM46" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN46" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO46" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP46" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AQ46" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -5254,7 +5256,7 @@
         <v>121</v>
       </c>
       <c r="W47" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X47" t="s">
         <v>146</v>
@@ -5269,22 +5271,22 @@
         <v>162</v>
       </c>
       <c r="AB47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH47" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AK47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL47">
         <v>4</v>
       </c>
       <c r="AM47" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AR47">
         <v>3</v>
@@ -5325,7 +5327,7 @@
         <v>122</v>
       </c>
       <c r="W48" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X48" t="s">
         <v>144</v>
@@ -5340,37 +5342,37 @@
         <v>162</v>
       </c>
       <c r="AB48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC48" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AH48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AM48" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN48" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO48" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP48" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ48" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR48">
         <v>2</v>
@@ -5408,7 +5410,7 @@
         <v>123</v>
       </c>
       <c r="W49" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X49" t="s">
         <v>144</v>
@@ -5423,34 +5425,34 @@
         <v>162</v>
       </c>
       <c r="AB49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM49" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN49" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO49" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP49" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ49" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR49">
         <v>2</v>
@@ -5488,7 +5490,7 @@
         <v>124</v>
       </c>
       <c r="W50" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>144</v>
@@ -5503,31 +5505,31 @@
         <v>162</v>
       </c>
       <c r="AB50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK50" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN50" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO50" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP50" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AQ50" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR50">
         <v>3</v>
@@ -5571,7 +5573,7 @@
         <v>100</v>
       </c>
       <c r="W51" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X51" t="s">
         <v>149</v>
@@ -5586,10 +5588,10 @@
         <v>162</v>
       </c>
       <c r="AB51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AR51">
         <v>4</v>
@@ -5627,7 +5629,7 @@
         <v>100</v>
       </c>
       <c r="W52" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X52" t="s">
         <v>144</v>
@@ -5642,34 +5644,34 @@
         <v>162</v>
       </c>
       <c r="AB52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC52" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AN52" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO52" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP52" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AQ52" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR52">
         <v>3</v>
@@ -5710,7 +5712,7 @@
         <v>98</v>
       </c>
       <c r="W53" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X53" t="s">
         <v>144</v>
@@ -5725,34 +5727,34 @@
         <v>162</v>
       </c>
       <c r="AB53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE53" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM53" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO53" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP53" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AQ53" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR53">
         <v>3</v>
@@ -5793,7 +5795,7 @@
         <v>99</v>
       </c>
       <c r="W54" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X54" t="s">
         <v>145</v>
@@ -5808,16 +5810,16 @@
         <v>162</v>
       </c>
       <c r="AB54" t="s">
-        <v>370</v>
+        <v>165</v>
       </c>
       <c r="AC54" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH54" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AK54" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL54">
         <v>4</v>
@@ -5861,7 +5863,7 @@
         <v>99</v>
       </c>
       <c r="W55" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X55" t="s">
         <v>146</v>
@@ -5876,22 +5878,22 @@
         <v>162</v>
       </c>
       <c r="AB55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC55" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH55" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AK55" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL55">
         <v>4</v>
       </c>
       <c r="AM55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AR55">
         <v>3</v>
@@ -5938,7 +5940,7 @@
         <v>99</v>
       </c>
       <c r="W56" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X56" t="s">
         <v>145</v>
@@ -5953,13 +5955,13 @@
         <v>162</v>
       </c>
       <c r="AB56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AK56" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL56">
         <v>4</v>
@@ -6003,7 +6005,7 @@
         <v>100</v>
       </c>
       <c r="W57" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X57" t="s">
         <v>144</v>
@@ -6018,31 +6020,31 @@
         <v>162</v>
       </c>
       <c r="AB57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK57" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN57" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO57" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP57" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AQ57" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR57">
         <v>3</v>
@@ -6080,7 +6082,7 @@
         <v>125</v>
       </c>
       <c r="W58" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X58" t="s">
         <v>144</v>
@@ -6095,34 +6097,34 @@
         <v>162</v>
       </c>
       <c r="AB58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC58" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN58" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO58" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP58" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AQ58" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR58">
         <v>2</v>
@@ -6160,7 +6162,7 @@
         <v>126</v>
       </c>
       <c r="W59" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X59" t="s">
         <v>144</v>
@@ -6175,34 +6177,34 @@
         <v>162</v>
       </c>
       <c r="AB59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF59" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG59" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM59" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AN59" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO59" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP59" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AQ59" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR59">
         <v>3</v>
@@ -6246,7 +6248,7 @@
         <v>103</v>
       </c>
       <c r="W60" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X60" t="s">
         <v>144</v>
@@ -6258,37 +6260,37 @@
         <v>158</v>
       </c>
       <c r="AA60" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ60" t="s">
         <v>370</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>315</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>329</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>339</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>368</v>
       </c>
       <c r="AR60">
         <v>2</v>
@@ -6329,7 +6331,7 @@
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X61" t="s">
         <v>144</v>
@@ -6344,34 +6346,34 @@
         <v>162</v>
       </c>
       <c r="AB61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH61" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AK61" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL61">
         <v>3</v>
       </c>
       <c r="AM61" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN61" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO61" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP61" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ61" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR61">
         <v>2</v>
@@ -6412,7 +6414,7 @@
         <v>99</v>
       </c>
       <c r="W62" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X62" t="s">
         <v>145</v>
@@ -6427,16 +6429,16 @@
         <v>162</v>
       </c>
       <c r="AB62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AK62" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL62">
         <v>4</v>
@@ -6477,7 +6479,7 @@
         <v>98</v>
       </c>
       <c r="W63" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X63" t="s">
         <v>144</v>
@@ -6492,31 +6494,31 @@
         <v>162</v>
       </c>
       <c r="AB63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK63" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AN63" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO63" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP63" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AQ63" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR63">
         <v>4</v>
@@ -6554,7 +6556,7 @@
         <v>107</v>
       </c>
       <c r="W64" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X64" t="s">
         <v>144</v>
@@ -6569,37 +6571,37 @@
         <v>162</v>
       </c>
       <c r="AB64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE64" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG64" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AM64" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN64" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO64" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP64" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ64" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR64">
         <v>3</v>
@@ -6640,7 +6642,7 @@
         <v>127</v>
       </c>
       <c r="W65" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X65" t="s">
         <v>146</v>
@@ -6655,19 +6657,19 @@
         <v>162</v>
       </c>
       <c r="AB65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK65" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL65">
         <v>3</v>
       </c>
       <c r="AM65" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AR65">
         <v>3</v>
@@ -6708,7 +6710,7 @@
         <v>128</v>
       </c>
       <c r="W66" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X66" t="s">
         <v>145</v>
@@ -6723,13 +6725,13 @@
         <v>162</v>
       </c>
       <c r="AB66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK66" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL66">
         <v>1</v>
@@ -6773,7 +6775,7 @@
         <v>98</v>
       </c>
       <c r="W67" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X67" t="s">
         <v>145</v>
@@ -6788,13 +6790,13 @@
         <v>162</v>
       </c>
       <c r="AB67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK67" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AL67">
         <v>3</v>
@@ -6835,7 +6837,7 @@
         <v>102</v>
       </c>
       <c r="W68" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X68" t="s">
         <v>148</v>
@@ -6850,34 +6852,34 @@
         <v>162</v>
       </c>
       <c r="AB68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC68" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF68" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM68" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN68" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO68" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP68" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ68" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR68">
         <v>3</v>
@@ -6918,7 +6920,7 @@
         <v>99</v>
       </c>
       <c r="W69" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X69" t="s">
         <v>145</v>
@@ -6933,13 +6935,13 @@
         <v>162</v>
       </c>
       <c r="AB69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC69" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK69" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL69">
         <v>4</v>
@@ -6983,7 +6985,7 @@
         <v>106</v>
       </c>
       <c r="W70" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X70" t="s">
         <v>148</v>
@@ -6998,37 +7000,37 @@
         <v>162</v>
       </c>
       <c r="AB70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC70" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AF70" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG70" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AH70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM70" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN70" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO70" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP70" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AQ70" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR70">
         <v>3</v>
@@ -7069,7 +7071,7 @@
         <v>106</v>
       </c>
       <c r="W71" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X71" t="s">
         <v>144</v>
@@ -7081,40 +7083,40 @@
         <v>158</v>
       </c>
       <c r="AA71" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ71" t="s">
         <v>370</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM71" t="s">
-        <v>317</v>
-      </c>
-      <c r="AN71" t="s">
-        <v>329</v>
-      </c>
-      <c r="AO71" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>368</v>
       </c>
       <c r="AR71">
         <v>3</v>
@@ -7155,7 +7157,7 @@
         <v>99</v>
       </c>
       <c r="W72" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X72" t="s">
         <v>145</v>
@@ -7170,16 +7172,16 @@
         <v>162</v>
       </c>
       <c r="AB72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC72" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH72" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AK72" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL72">
         <v>4</v>
@@ -7220,7 +7222,7 @@
         <v>106</v>
       </c>
       <c r="W73" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X73" t="s">
         <v>144</v>
@@ -7235,31 +7237,31 @@
         <v>162</v>
       </c>
       <c r="AB73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN73" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO73" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP73" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AQ73" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -7300,7 +7302,7 @@
         <v>129</v>
       </c>
       <c r="W74" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X74" t="s">
         <v>145</v>
@@ -7315,13 +7317,13 @@
         <v>162</v>
       </c>
       <c r="AB74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK74" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL74">
         <v>3</v>
@@ -7362,7 +7364,7 @@
         <v>100</v>
       </c>
       <c r="W75" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X75" t="s">
         <v>144</v>
@@ -7377,34 +7379,34 @@
         <v>162</v>
       </c>
       <c r="AB75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC75" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG75" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM75" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN75" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO75" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP75" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AQ75" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR75">
         <v>3</v>
@@ -7445,7 +7447,7 @@
         <v>98</v>
       </c>
       <c r="W76" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X76" t="s">
         <v>145</v>
@@ -7460,13 +7462,13 @@
         <v>162</v>
       </c>
       <c r="AB76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC76" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK76" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL76">
         <v>3</v>
@@ -7507,7 +7509,7 @@
         <v>107</v>
       </c>
       <c r="W77" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -7522,34 +7524,34 @@
         <v>162</v>
       </c>
       <c r="AB77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC77" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE77" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AF77" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG77" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM77" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AN77" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO77" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP77" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AQ77" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -7602,16 +7604,16 @@
         <v>162</v>
       </c>
       <c r="AB78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC78" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ78" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK78" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL78">
         <v>4</v>
@@ -7655,7 +7657,7 @@
         <v>99</v>
       </c>
       <c r="W79" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X79" t="s">
         <v>144</v>
@@ -7670,37 +7672,37 @@
         <v>162</v>
       </c>
       <c r="AB79" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC79" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE79" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF79" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG79" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AH79" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM79" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN79" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO79" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP79" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AQ79" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR79">
         <v>4</v>
@@ -7741,7 +7743,7 @@
         <v>130</v>
       </c>
       <c r="W80" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X80" t="s">
         <v>144</v>
@@ -7756,34 +7758,34 @@
         <v>162</v>
       </c>
       <c r="AB80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC80" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG80" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM80" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN80" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO80" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP80" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AQ80" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR80">
         <v>3</v>
@@ -7830,7 +7832,7 @@
         <v>107</v>
       </c>
       <c r="W81" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X81" t="s">
         <v>144</v>
@@ -7845,34 +7847,34 @@
         <v>162</v>
       </c>
       <c r="AB81" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>358</v>
+      </c>
+      <c r="AQ81" t="s">
         <v>370</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF81" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG81" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM81" t="s">
-        <v>322</v>
-      </c>
-      <c r="AN81" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO81" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP81" t="s">
-        <v>356</v>
-      </c>
-      <c r="AQ81" t="s">
-        <v>368</v>
       </c>
       <c r="AR81">
         <v>2</v>
@@ -7913,7 +7915,7 @@
         <v>104</v>
       </c>
       <c r="W82" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X82" t="s">
         <v>144</v>
@@ -7925,40 +7927,40 @@
         <v>157</v>
       </c>
       <c r="AA82" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ82" t="s">
         <v>370</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF82" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH82" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM82" t="s">
-        <v>324</v>
-      </c>
-      <c r="AN82" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO82" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP82" t="s">
-        <v>357</v>
-      </c>
-      <c r="AQ82" t="s">
-        <v>368</v>
       </c>
       <c r="AR82">
         <v>3</v>
@@ -8002,7 +8004,7 @@
         <v>98</v>
       </c>
       <c r="W83" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X83" t="s">
         <v>144</v>
@@ -8017,31 +8019,31 @@
         <v>162</v>
       </c>
       <c r="AB83" t="s">
-        <v>370</v>
+        <v>165</v>
       </c>
       <c r="AC83" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK83" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL83">
         <v>3</v>
       </c>
       <c r="AM83" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN83" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO83" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP83" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AQ83" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR83">
         <v>4</v>
@@ -8082,7 +8084,7 @@
         <v>131</v>
       </c>
       <c r="W84" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X84" t="s">
         <v>144</v>
@@ -8097,34 +8099,34 @@
         <v>162</v>
       </c>
       <c r="AB84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC84" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE84" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG84" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM84" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN84" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO84" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP84" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ84" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR84">
         <v>3</v>
@@ -8162,7 +8164,7 @@
         <v>132</v>
       </c>
       <c r="W85" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X85" t="s">
         <v>144</v>
@@ -8177,34 +8179,34 @@
         <v>162</v>
       </c>
       <c r="AB85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC85" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE85" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF85" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG85" t="s">
         <v>204</v>
       </c>
-      <c r="AG85" t="s">
-        <v>202</v>
-      </c>
       <c r="AM85" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AN85" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO85" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP85" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AQ85" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR85">
         <v>3</v>
@@ -8242,7 +8244,7 @@
         <v>133</v>
       </c>
       <c r="W86" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X86" t="s">
         <v>148</v>
@@ -8257,34 +8259,34 @@
         <v>162</v>
       </c>
       <c r="AB86" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC86" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE86" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF86" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG86" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM86" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN86" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO86" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP86" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AQ86" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR86">
         <v>3</v>
@@ -8322,7 +8324,7 @@
         <v>134</v>
       </c>
       <c r="W87" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X87" t="s">
         <v>144</v>
@@ -8337,31 +8339,31 @@
         <v>162</v>
       </c>
       <c r="AB87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC87" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK87" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN87" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO87" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP87" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AQ87" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR87">
         <v>4</v>
@@ -8402,7 +8404,7 @@
         <v>106</v>
       </c>
       <c r="W88" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X88" t="s">
         <v>146</v>
@@ -8417,19 +8419,19 @@
         <v>162</v>
       </c>
       <c r="AB88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC88" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK88" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL88">
         <v>2</v>
       </c>
       <c r="AM88" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AR88">
         <v>2</v>
@@ -8470,7 +8472,7 @@
         <v>98</v>
       </c>
       <c r="W89" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X89" t="s">
         <v>145</v>
@@ -8485,16 +8487,16 @@
         <v>162</v>
       </c>
       <c r="AB89" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC89" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH89" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AK89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL89">
         <v>1</v>
@@ -8538,7 +8540,7 @@
         <v>107</v>
       </c>
       <c r="W90" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X90" t="s">
         <v>145</v>
@@ -8553,13 +8555,13 @@
         <v>162</v>
       </c>
       <c r="AB90" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC90" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK90" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL90">
         <v>3</v>
@@ -8603,7 +8605,7 @@
         <v>135</v>
       </c>
       <c r="W91" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X91" t="s">
         <v>146</v>
@@ -8618,19 +8620,19 @@
         <v>162</v>
       </c>
       <c r="AB91" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC91" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK91" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL91">
         <v>4</v>
       </c>
       <c r="AM91" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AR91">
         <v>2</v>
@@ -8671,7 +8673,7 @@
         <v>98</v>
       </c>
       <c r="W92" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X92" t="s">
         <v>145</v>
@@ -8686,13 +8688,13 @@
         <v>162</v>
       </c>
       <c r="AB92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC92" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK92" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AL92">
         <v>3</v>
@@ -8733,7 +8735,7 @@
         <v>98</v>
       </c>
       <c r="W93" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X93" t="s">
         <v>144</v>
@@ -8748,31 +8750,31 @@
         <v>162</v>
       </c>
       <c r="AB93" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC93" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK93" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AL93">
         <v>2</v>
       </c>
       <c r="AM93" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN93" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO93" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP93" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AQ93" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR93">
         <v>3</v>
@@ -8813,7 +8815,7 @@
         <v>99</v>
       </c>
       <c r="W94" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X94" t="s">
         <v>146</v>
@@ -8828,19 +8830,19 @@
         <v>162</v>
       </c>
       <c r="AB94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC94" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK94" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL94">
         <v>3</v>
       </c>
       <c r="AM94" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AR94">
         <v>3</v>
@@ -8881,7 +8883,7 @@
         <v>117</v>
       </c>
       <c r="W95" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X95" t="s">
         <v>144</v>
@@ -8896,37 +8898,37 @@
         <v>162</v>
       </c>
       <c r="AB95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC95" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE95" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF95" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG95" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AH95" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM95" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN95" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO95" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP95" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ95" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR95">
         <v>4</v>
@@ -8967,7 +8969,7 @@
         <v>98</v>
       </c>
       <c r="W96" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X96" t="s">
         <v>145</v>
@@ -8982,13 +8984,13 @@
         <v>162</v>
       </c>
       <c r="AB96" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC96" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK96" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AL96">
         <v>2</v>
@@ -9029,7 +9031,7 @@
         <v>98</v>
       </c>
       <c r="W97" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X97" t="s">
         <v>145</v>
@@ -9044,13 +9046,13 @@
         <v>162</v>
       </c>
       <c r="AB97" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC97" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK97" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL97">
         <v>3</v>
@@ -9094,7 +9096,7 @@
         <v>136</v>
       </c>
       <c r="W98" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X98" t="s">
         <v>145</v>
@@ -9109,13 +9111,13 @@
         <v>162</v>
       </c>
       <c r="AB98" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC98" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK98" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL98">
         <v>2</v>
@@ -9171,34 +9173,34 @@
         <v>162</v>
       </c>
       <c r="AB99" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC99" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE99" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF99" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG99" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM99" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AN99" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO99" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP99" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AQ99" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR99">
         <v>3</v>
@@ -9239,7 +9241,7 @@
         <v>103</v>
       </c>
       <c r="W100" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X100" t="s">
         <v>144</v>
@@ -9254,34 +9256,34 @@
         <v>162</v>
       </c>
       <c r="AB100" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC100" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AK100" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL100">
         <v>3</v>
       </c>
       <c r="AM100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN100" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO100" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP100" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AQ100" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR100">
         <v>3</v>
@@ -9322,7 +9324,7 @@
         <v>102</v>
       </c>
       <c r="W101" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X101" t="s">
         <v>148</v>
@@ -9334,37 +9336,37 @@
         <v>161</v>
       </c>
       <c r="AA101" t="s">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="AB101" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC101" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH101" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AK101" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL101">
         <v>2</v>
       </c>
       <c r="AM101" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN101" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO101" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP101" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AQ101" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR101">
         <v>3</v>
@@ -9405,7 +9407,7 @@
         <v>103</v>
       </c>
       <c r="W102" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X102" t="s">
         <v>144</v>
@@ -9420,34 +9422,34 @@
         <v>162</v>
       </c>
       <c r="AB102" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC102" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE102" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF102" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG102" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM102" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN102" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO102" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP102" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AQ102" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR102">
         <v>3</v>
@@ -9488,7 +9490,7 @@
         <v>99</v>
       </c>
       <c r="W103" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X103" t="s">
         <v>145</v>
@@ -9503,16 +9505,16 @@
         <v>162</v>
       </c>
       <c r="AB103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC103" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH103" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK103" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL103">
         <v>1</v>
@@ -9556,7 +9558,7 @@
         <v>137</v>
       </c>
       <c r="W104" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X104" t="s">
         <v>144</v>
@@ -9568,37 +9570,37 @@
         <v>158</v>
       </c>
       <c r="AA104" t="s">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="AB104" t="s">
-        <v>370</v>
+        <v>165</v>
       </c>
       <c r="AC104" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE104" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF104" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG104" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM104" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AN104" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO104" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP104" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AQ104" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR104">
         <v>1</v>
@@ -9639,7 +9641,7 @@
         <v>116</v>
       </c>
       <c r="W105" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X105" t="s">
         <v>144</v>
@@ -9654,34 +9656,34 @@
         <v>162</v>
       </c>
       <c r="AB105" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC105" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH105" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AK105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL105">
         <v>4</v>
       </c>
       <c r="AM105" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN105" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AO105" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP105" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ105" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR105">
         <v>4</v>
@@ -9719,7 +9721,7 @@
         <v>124</v>
       </c>
       <c r="W106" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X106" t="s">
         <v>144</v>
@@ -9734,34 +9736,34 @@
         <v>162</v>
       </c>
       <c r="AB106" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC106" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF106" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG106" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM106" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN106" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO106" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP106" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ106" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR106">
         <v>1</v>
@@ -9799,7 +9801,7 @@
         <v>98</v>
       </c>
       <c r="W107" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X107" t="s">
         <v>144</v>
@@ -9814,34 +9816,34 @@
         <v>162</v>
       </c>
       <c r="AB107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC107" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AE107" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF107" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG107" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM107" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN107" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO107" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP107" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ107" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR107">
         <v>3</v>
@@ -9879,7 +9881,7 @@
         <v>98</v>
       </c>
       <c r="W108" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X108" t="s">
         <v>144</v>
@@ -9891,37 +9893,37 @@
         <v>157</v>
       </c>
       <c r="AA108" t="s">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="AB108" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC108" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH108" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK108" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="AM108" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN108" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO108" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP108" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ108" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR108">
         <v>4</v>
@@ -9962,7 +9964,7 @@
         <v>100</v>
       </c>
       <c r="W109" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X109" t="s">
         <v>146</v>
@@ -9977,19 +9979,19 @@
         <v>162</v>
       </c>
       <c r="AB109" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC109" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK109" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL109">
         <v>4</v>
       </c>
       <c r="AM109" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AR109">
         <v>4</v>
@@ -10030,7 +10032,7 @@
         <v>138</v>
       </c>
       <c r="W110" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X110" t="s">
         <v>144</v>
@@ -10045,37 +10047,37 @@
         <v>162</v>
       </c>
       <c r="AB110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC110" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE110" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF110" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG110" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AH110" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM110" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AN110" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO110" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP110" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AQ110" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR110">
         <v>3</v>
@@ -10116,7 +10118,7 @@
         <v>139</v>
       </c>
       <c r="W111" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X111" t="s">
         <v>144</v>
@@ -10131,37 +10133,37 @@
         <v>162</v>
       </c>
       <c r="AB111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC111" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE111" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF111" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG111" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AH111" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM111" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN111" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO111" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP111" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ111" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR111">
         <v>1</v>
@@ -10199,7 +10201,7 @@
         <v>118</v>
       </c>
       <c r="W112" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X112" t="s">
         <v>150</v>
@@ -10214,13 +10216,13 @@
         <v>162</v>
       </c>
       <c r="AB112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC112" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ112" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AR112">
         <v>3</v>
@@ -10258,7 +10260,7 @@
         <v>140</v>
       </c>
       <c r="W113" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X113" t="s">
         <v>144</v>
@@ -10273,34 +10275,34 @@
         <v>162</v>
       </c>
       <c r="AB113" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC113" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE113" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF113" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG113" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM113" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN113" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO113" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP113" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ113" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR113">
         <v>4</v>
@@ -10341,7 +10343,7 @@
         <v>123</v>
       </c>
       <c r="W114" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X114" t="s">
         <v>144</v>
@@ -10356,31 +10358,31 @@
         <v>162</v>
       </c>
       <c r="AB114" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC114" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK114" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL114">
         <v>4</v>
       </c>
       <c r="AM114" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AN114" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO114" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP114" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AQ114" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR114">
         <v>4</v>
@@ -10418,7 +10420,7 @@
         <v>103</v>
       </c>
       <c r="W115" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X115" t="s">
         <v>146</v>
@@ -10433,22 +10435,22 @@
         <v>162</v>
       </c>
       <c r="AB115" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC115" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AK115" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL115">
         <v>2</v>
       </c>
       <c r="AM115" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AR115">
         <v>2</v>
@@ -10486,7 +10488,7 @@
         <v>103</v>
       </c>
       <c r="W116" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X116" t="s">
         <v>144</v>
@@ -10501,34 +10503,34 @@
         <v>162</v>
       </c>
       <c r="AB116" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC116" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE116" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF116" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG116" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM116" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AN116" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO116" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP116" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AQ116" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR116">
         <v>2</v>
@@ -10566,7 +10568,7 @@
         <v>124</v>
       </c>
       <c r="W117" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X117" t="s">
         <v>144</v>
@@ -10581,34 +10583,34 @@
         <v>162</v>
       </c>
       <c r="AB117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC117" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE117" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF117" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG117" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM117" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN117" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO117" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP117" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ117" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR117">
         <v>3</v>
@@ -10649,7 +10651,7 @@
         <v>122</v>
       </c>
       <c r="W118" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X118" t="s">
         <v>145</v>
@@ -10664,13 +10666,13 @@
         <v>162</v>
       </c>
       <c r="AB118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC118" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK118" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL118">
         <v>1</v>
@@ -10714,7 +10716,7 @@
         <v>98</v>
       </c>
       <c r="W119" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X119" t="s">
         <v>144</v>
@@ -10729,34 +10731,34 @@
         <v>162</v>
       </c>
       <c r="AB119" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC119" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE119" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF119" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG119" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AM119" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN119" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO119" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP119" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AQ119" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR119">
         <v>3</v>
@@ -10800,7 +10802,7 @@
         <v>100</v>
       </c>
       <c r="W120" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X120" t="s">
         <v>144</v>
@@ -10815,37 +10817,37 @@
         <v>162</v>
       </c>
       <c r="AB120" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC120" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE120" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF120" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG120" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH120" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM120" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN120" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO120" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP120" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AQ120" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR120">
         <v>4</v>
@@ -10883,7 +10885,7 @@
         <v>98</v>
       </c>
       <c r="W121" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X121" t="s">
         <v>146</v>
@@ -10898,19 +10900,19 @@
         <v>162</v>
       </c>
       <c r="AB121" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC121" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK121" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL121">
         <v>4</v>
       </c>
       <c r="AM121" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AR121">
         <v>3</v>
@@ -10951,7 +10953,7 @@
         <v>141</v>
       </c>
       <c r="W122" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X122" t="s">
         <v>146</v>
@@ -10966,22 +10968,22 @@
         <v>162</v>
       </c>
       <c r="AB122" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC122" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK122" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL122">
         <v>3</v>
       </c>
       <c r="AM122" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AR122">
         <v>4</v>
@@ -11019,7 +11021,7 @@
         <v>100</v>
       </c>
       <c r="W123" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X123" t="s">
         <v>144</v>
@@ -11034,34 +11036,34 @@
         <v>162</v>
       </c>
       <c r="AB123" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC123" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH123" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK123" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL123">
         <v>4</v>
       </c>
       <c r="AM123" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN123" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO123" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP123" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AQ123" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AR123">
         <v>1</v>
@@ -11102,7 +11104,7 @@
         <v>100</v>
       </c>
       <c r="W124" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X124" t="s">
         <v>144</v>
@@ -11114,37 +11116,37 @@
         <v>158</v>
       </c>
       <c r="AA124" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN124" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO124" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP124" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ124" t="s">
         <v>370</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC124" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF124" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG124" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM124" t="s">
-        <v>311</v>
-      </c>
-      <c r="AN124" t="s">
-        <v>329</v>
-      </c>
-      <c r="AO124" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP124" t="s">
-        <v>339</v>
-      </c>
-      <c r="AQ124" t="s">
-        <v>368</v>
       </c>
       <c r="AR124">
         <v>3</v>
@@ -11188,7 +11190,7 @@
         <v>99</v>
       </c>
       <c r="W125" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X125" t="s">
         <v>145</v>
@@ -11203,16 +11205,16 @@
         <v>162</v>
       </c>
       <c r="AB125" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC125" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AH125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK125" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL125">
         <v>2</v>
@@ -11259,7 +11261,7 @@
         <v>99</v>
       </c>
       <c r="W126" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X126" t="s">
         <v>145</v>
@@ -11274,16 +11276,16 @@
         <v>162</v>
       </c>
       <c r="AB126" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC126" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AH126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK126" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL126">
         <v>2</v>
@@ -11324,7 +11326,7 @@
         <v>106</v>
       </c>
       <c r="W127" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X127" t="s">
         <v>144</v>
@@ -11339,34 +11341,34 @@
         <v>162</v>
       </c>
       <c r="AB127" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC127" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE127" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF127" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG127" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM127" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN127" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO127" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP127" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AQ127" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AR127">
         <v>4</v>
@@ -11407,7 +11409,7 @@
         <v>120</v>
       </c>
       <c r="W128" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X128" t="s">
         <v>144</v>
@@ -11419,37 +11421,37 @@
         <v>157</v>
       </c>
       <c r="AA128" t="s">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="AB128" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC128" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF128" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG128" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM128" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN128" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AO128" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AP128" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ128" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AR128">
         <v>2</v>
@@ -11490,7 +11492,7 @@
         <v>99</v>
       </c>
       <c r="W129" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X129" t="s">
         <v>145</v>
@@ -11502,16 +11504,16 @@
         <v>158</v>
       </c>
       <c r="AA129" t="s">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="AB129" t="s">
-        <v>370</v>
+        <v>165</v>
       </c>
       <c r="AC129" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK129" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL129">
         <v>1</v>
@@ -11555,7 +11557,7 @@
         <v>111</v>
       </c>
       <c r="W130" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X130" t="s">
         <v>145</v>
@@ -11570,16 +11572,16 @@
         <v>162</v>
       </c>
       <c r="AB130" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC130" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH130" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AK130" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL130">
         <v>3</v>

--- a/Data source/Risposte_unificate.xlsx
+++ b/Data source/Risposte_unificate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\Projects\Bike2Work\Data source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario.quartulli\Desktop\Bike2Work\Data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33271BDF-CCBC-441F-B7F8-8F557F3C414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35627A-7256-49D4-88F2-450ED4E468C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,13 +511,7 @@
     <t>Diretto (casa - lavoro)</t>
   </si>
   <si>
-    <t>Indiretto (casa - accompagnare figli a scuola, commissioni, altro - lavoro)</t>
-  </si>
-  <si>
     <t>Diretto (lavoro - casa)</t>
-  </si>
-  <si>
-    <t>Indiretto (lavoro - accompagnare figli a scuola, commissioni, altro - casa)</t>
   </si>
   <si>
     <t>Caserma</t>
@@ -1138,6 +1132,12 @@
   </si>
   <si>
     <t>No in ogni caso</t>
+  </si>
+  <si>
+    <t>Indiretto (casa - accompagnare figli a scuola; commissioni; altro - lavoro)</t>
+  </si>
+  <si>
+    <t>Indiretto (lavoro - accompagnare figli a scuola; commissioni; altro - casa)</t>
   </si>
 </sst>
 </file>
@@ -1511,25 +1511,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="23" max="23" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="173.36328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="72.90625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="164.08984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="89.81640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="149.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="173.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="164.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="149.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45804.616113206022</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>98</v>
       </c>
       <c r="W2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X2" t="s">
         <v>144</v>
@@ -1716,43 +1717,43 @@
         <v>162</v>
       </c>
       <c r="AB2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE2" t="s">
         <v>166</v>
       </c>
-      <c r="AE2" t="s">
-        <v>168</v>
-      </c>
       <c r="AF2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AH2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45804.616531342603</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>98</v>
       </c>
       <c r="W3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X3" t="s">
         <v>144</v>
@@ -1805,40 +1806,40 @@
         <v>162</v>
       </c>
       <c r="AB3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AP3" t="s">
         <v>336</v>
       </c>
-      <c r="AP3" t="s">
-        <v>338</v>
-      </c>
       <c r="AQ3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45804.635733726849</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>98</v>
       </c>
       <c r="W4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X4" t="s">
         <v>144</v>
@@ -1891,40 +1892,40 @@
         <v>162</v>
       </c>
       <c r="AB4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AN4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AQ4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45804.652549270832</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>99</v>
       </c>
       <c r="W5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X5" t="s">
         <v>145</v>
@@ -1977,13 +1978,13 @@
         <v>162</v>
       </c>
       <c r="AB5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AL5">
         <v>4</v>
@@ -1992,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45804.722113009258</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>99</v>
       </c>
       <c r="W6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X6" t="s">
         <v>145</v>
@@ -2042,16 +2043,16 @@
         <v>158</v>
       </c>
       <c r="AA6" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB6" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL6">
         <v>2</v>
@@ -2060,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45804.778981631942</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>98</v>
       </c>
       <c r="W7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X7" t="s">
         <v>145</v>
@@ -2116,16 +2117,16 @@
         <v>162</v>
       </c>
       <c r="AB7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AK7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AL7">
         <v>4</v>
@@ -2134,7 +2135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45805.383861550923</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>100</v>
       </c>
       <c r="W8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X8" t="s">
         <v>144</v>
@@ -2187,40 +2188,40 @@
         <v>162</v>
       </c>
       <c r="AB8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AN8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AQ8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45805.391008032413</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>101</v>
       </c>
       <c r="W9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X9" t="s">
         <v>145</v>
@@ -2273,13 +2274,13 @@
         <v>162</v>
       </c>
       <c r="AB9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AL9">
         <v>4</v>
@@ -2288,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45805.400433252318</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>99</v>
       </c>
       <c r="W10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X10" t="s">
         <v>145</v>
@@ -2341,13 +2342,13 @@
         <v>162</v>
       </c>
       <c r="AB10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AL10">
         <v>3</v>
@@ -2356,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45805.412378587956</v>
       </c>
@@ -2406,25 +2407,25 @@
         <v>162</v>
       </c>
       <c r="AB11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AL11">
         <v>4</v>
       </c>
       <c r="AM11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AR11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45805.442984502311</v>
       </c>
@@ -2474,19 +2475,19 @@
         <v>162</v>
       </c>
       <c r="AB12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AJ12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AL12">
         <v>3</v>
@@ -2495,7 +2496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45805.447943136583</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>103</v>
       </c>
       <c r="W13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X13" t="s">
         <v>144</v>
@@ -2548,43 +2549,43 @@
         <v>162</v>
       </c>
       <c r="AB13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AH13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45805.454951979169</v>
       </c>
@@ -2634,43 +2635,43 @@
         <v>162</v>
       </c>
       <c r="AB14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE14" t="s">
         <v>166</v>
       </c>
-      <c r="AE14" t="s">
-        <v>168</v>
-      </c>
       <c r="AF14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AN14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45805.642305243047</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>104</v>
       </c>
       <c r="W15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X15" t="s">
         <v>144</v>
@@ -2720,40 +2721,40 @@
         <v>162</v>
       </c>
       <c r="AB15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE15" t="s">
         <v>166</v>
       </c>
-      <c r="AE15" t="s">
-        <v>168</v>
-      </c>
       <c r="AF15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45805.642335405093</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>98</v>
       </c>
       <c r="W16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X16" t="s">
         <v>144</v>
@@ -2803,40 +2804,40 @@
         <v>162</v>
       </c>
       <c r="AB16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE16" t="s">
         <v>166</v>
       </c>
-      <c r="AE16" t="s">
-        <v>168</v>
-      </c>
       <c r="AF16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45805.642463634264</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>105</v>
       </c>
       <c r="W17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X17" t="s">
         <v>144</v>
@@ -2886,40 +2887,40 @@
         <v>162</v>
       </c>
       <c r="AB17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45805.643502881947</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>106</v>
       </c>
       <c r="W18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X18" t="s">
         <v>144</v>
@@ -2972,37 +2973,37 @@
         <v>162</v>
       </c>
       <c r="AB18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AQ18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45805.643725868053</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>107</v>
       </c>
       <c r="W19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X19" t="s">
         <v>144</v>
@@ -3052,40 +3053,40 @@
         <v>162</v>
       </c>
       <c r="AB19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45805.644398287041</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>103</v>
       </c>
       <c r="W20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X20" t="s">
         <v>144</v>
@@ -3135,40 +3136,40 @@
         <v>162</v>
       </c>
       <c r="AB20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE20" t="s">
         <v>166</v>
       </c>
-      <c r="AE20" t="s">
-        <v>168</v>
-      </c>
       <c r="AF20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45805.645077557871</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>108</v>
       </c>
       <c r="W21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X21" t="s">
         <v>144</v>
@@ -3215,46 +3216,46 @@
         <v>158</v>
       </c>
       <c r="AA21" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AH21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AN21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45805.645573009257</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>109</v>
       </c>
       <c r="W22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X22" t="s">
         <v>144</v>
@@ -3301,46 +3302,46 @@
         <v>157</v>
       </c>
       <c r="AA22" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AH22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AQ22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45805.64634388889</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="W23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X23" t="s">
         <v>144</v>
@@ -3390,40 +3391,40 @@
         <v>162</v>
       </c>
       <c r="AB23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45805.646880289351</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>110</v>
       </c>
       <c r="W24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X24" t="s">
         <v>144</v>
@@ -3473,40 +3474,40 @@
         <v>162</v>
       </c>
       <c r="AB24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC24" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE24" t="s">
         <v>166</v>
       </c>
-      <c r="AE24" t="s">
-        <v>168</v>
-      </c>
       <c r="AF24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AQ24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45805.647149432873</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>98</v>
       </c>
       <c r="W25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X25" t="s">
         <v>144</v>
@@ -3556,40 +3557,40 @@
         <v>162</v>
       </c>
       <c r="AB25" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45805.647847175933</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>111</v>
       </c>
       <c r="W26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X26" t="s">
         <v>146</v>
@@ -3642,25 +3643,25 @@
         <v>162</v>
       </c>
       <c r="AB26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AL26">
         <v>2</v>
       </c>
       <c r="AM26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45805.649957013891</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>112</v>
       </c>
       <c r="W27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X27" t="s">
         <v>144</v>
@@ -3710,40 +3711,40 @@
         <v>162</v>
       </c>
       <c r="AB27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE27" t="s">
         <v>166</v>
       </c>
-      <c r="AE27" t="s">
-        <v>168</v>
-      </c>
       <c r="AF27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45805.650574560183</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>113</v>
       </c>
       <c r="W28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X28" t="s">
         <v>144</v>
@@ -3796,40 +3797,40 @@
         <v>162</v>
       </c>
       <c r="AB28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE28" t="s">
         <v>166</v>
       </c>
-      <c r="AE28" t="s">
-        <v>168</v>
-      </c>
       <c r="AF28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45805.651052615744</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>100</v>
       </c>
       <c r="W29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X29" t="s">
         <v>144</v>
@@ -3879,40 +3880,40 @@
         <v>162</v>
       </c>
       <c r="AB29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE29" t="s">
         <v>166</v>
       </c>
-      <c r="AE29" t="s">
-        <v>168</v>
-      </c>
       <c r="AF29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45805.656936747677</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>107</v>
       </c>
       <c r="W30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X30" t="s">
         <v>144</v>
@@ -3965,43 +3966,43 @@
         <v>162</v>
       </c>
       <c r="AB30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AQ30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45805.657394247683</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>98</v>
       </c>
       <c r="W31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X31" t="s">
         <v>148</v>
@@ -4051,43 +4052,43 @@
         <v>158</v>
       </c>
       <c r="AA31" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB31" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE31" t="s">
         <v>166</v>
       </c>
-      <c r="AE31" t="s">
-        <v>168</v>
-      </c>
       <c r="AF31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45805.659639444442</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>98</v>
       </c>
       <c r="W32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X32" t="s">
         <v>144</v>
@@ -4140,40 +4141,40 @@
         <v>162</v>
       </c>
       <c r="AB32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE32" t="s">
         <v>166</v>
       </c>
-      <c r="AE32" t="s">
-        <v>168</v>
-      </c>
       <c r="AF32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45805.87985715278</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>114</v>
       </c>
       <c r="W33" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X33" t="s">
         <v>145</v>
@@ -4226,16 +4227,16 @@
         <v>162</v>
       </c>
       <c r="AB33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AK33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL33">
         <v>3</v>
@@ -4244,7 +4245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45806.306799849539</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>115</v>
       </c>
       <c r="W34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X34" t="s">
         <v>145</v>
@@ -4297,13 +4298,13 @@
         <v>162</v>
       </c>
       <c r="AB34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AL34">
         <v>2</v>
@@ -4312,7 +4313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45806.316612488423</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>106</v>
       </c>
       <c r="W35" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X35" t="s">
         <v>144</v>
@@ -4362,37 +4363,37 @@
         <v>162</v>
       </c>
       <c r="AB35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP35" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AQ35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45806.317079756947</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>98</v>
       </c>
       <c r="W36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X36" t="s">
         <v>146</v>
@@ -4442,28 +4443,28 @@
         <v>158</v>
       </c>
       <c r="AA36" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL36">
         <v>3</v>
       </c>
       <c r="AM36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AR36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45806.319117025458</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>99</v>
       </c>
       <c r="W37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X37" t="s">
         <v>145</v>
@@ -4516,16 +4517,16 @@
         <v>162</v>
       </c>
       <c r="AB37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AK37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL37">
         <v>3</v>
@@ -4534,7 +4535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45806.319847476851</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>114</v>
       </c>
       <c r="W38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X38" t="s">
         <v>149</v>
@@ -4587,16 +4588,16 @@
         <v>162</v>
       </c>
       <c r="AB38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AR38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45806.3203765625</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>103</v>
       </c>
       <c r="W39" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X39" t="s">
         <v>144</v>
@@ -4646,43 +4647,43 @@
         <v>162</v>
       </c>
       <c r="AB39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AH39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AQ39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45806.320960254627</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>116</v>
       </c>
       <c r="W40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X40" t="s">
         <v>149</v>
@@ -4735,16 +4736,16 @@
         <v>162</v>
       </c>
       <c r="AB40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AR40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45806.322396249998</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>100</v>
       </c>
       <c r="W41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X41" t="s">
         <v>144</v>
@@ -4794,37 +4795,37 @@
         <v>162</v>
       </c>
       <c r="AB41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL41">
         <v>3</v>
       </c>
       <c r="AM41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AN41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AQ41" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45806.32250603009</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>117</v>
       </c>
       <c r="W42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X42" t="s">
         <v>144</v>
@@ -4874,37 +4875,37 @@
         <v>162</v>
       </c>
       <c r="AB42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO42" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45806.326434039351</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>99</v>
       </c>
       <c r="W43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X43" t="s">
         <v>145</v>
@@ -4957,13 +4958,13 @@
         <v>162</v>
       </c>
       <c r="AB43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AL43">
         <v>2</v>
@@ -4972,7 +4973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45806.326848194447</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>118</v>
       </c>
       <c r="W44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X44" t="s">
         <v>144</v>
@@ -5025,37 +5026,37 @@
         <v>162</v>
       </c>
       <c r="AB44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL44">
         <v>3</v>
       </c>
       <c r="AM44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO44" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AQ44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45806.329442974537</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>119</v>
       </c>
       <c r="W45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X45" t="s">
         <v>144</v>
@@ -5105,43 +5106,43 @@
         <v>162</v>
       </c>
       <c r="AB45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AF45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AH45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM45" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AN45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AQ45" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45806.344806643523</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>120</v>
       </c>
       <c r="W46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X46" t="s">
         <v>148</v>
@@ -5188,40 +5189,40 @@
         <v>162</v>
       </c>
       <c r="AB46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM46" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN46" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO46" t="s">
         <v>334</v>
       </c>
-      <c r="AO46" t="s">
-        <v>336</v>
-      </c>
       <c r="AP46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AQ46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45806.357370509257</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>121</v>
       </c>
       <c r="W47" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X47" t="s">
         <v>146</v>
@@ -5271,28 +5272,28 @@
         <v>162</v>
       </c>
       <c r="AB47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AK47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL47">
         <v>4</v>
       </c>
       <c r="AM47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45806.363646620368</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>122</v>
       </c>
       <c r="W48" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X48" t="s">
         <v>144</v>
@@ -5342,43 +5343,43 @@
         <v>162</v>
       </c>
       <c r="AB48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE48" t="s">
         <v>166</v>
       </c>
-      <c r="AE48" t="s">
-        <v>168</v>
-      </c>
       <c r="AF48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AH48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN48" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP48" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45806.367258171304</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>123</v>
       </c>
       <c r="W49" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X49" t="s">
         <v>144</v>
@@ -5425,40 +5426,40 @@
         <v>162</v>
       </c>
       <c r="AB49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN49" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO49" t="s">
         <v>334</v>
       </c>
-      <c r="AO49" t="s">
-        <v>336</v>
-      </c>
       <c r="AP49" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45806.370561805546</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>124</v>
       </c>
       <c r="W50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
         <v>144</v>
@@ -5505,37 +5506,37 @@
         <v>162</v>
       </c>
       <c r="AB50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN50" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO50" t="s">
         <v>334</v>
       </c>
-      <c r="AO50" t="s">
-        <v>336</v>
-      </c>
       <c r="AP50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ50" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45806.37460505787</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>100</v>
       </c>
       <c r="W51" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X51" t="s">
         <v>149</v>
@@ -5588,16 +5589,16 @@
         <v>162</v>
       </c>
       <c r="AB51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AR51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45806.382743564813</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>100</v>
       </c>
       <c r="W52" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X52" t="s">
         <v>144</v>
@@ -5644,40 +5645,40 @@
         <v>162</v>
       </c>
       <c r="AB52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AN52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AQ52" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45806.384104583332</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>98</v>
       </c>
       <c r="W53" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X53" t="s">
         <v>144</v>
@@ -5727,40 +5728,40 @@
         <v>162</v>
       </c>
       <c r="AB53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO53" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45806.458274525467</v>
       </c>
@@ -5795,7 +5796,7 @@
         <v>99</v>
       </c>
       <c r="W54" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X54" t="s">
         <v>145</v>
@@ -5810,16 +5811,16 @@
         <v>162</v>
       </c>
       <c r="AB54" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AK54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AL54">
         <v>4</v>
@@ -5828,7 +5829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45806.48254203704</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>99</v>
       </c>
       <c r="W55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X55" t="s">
         <v>146</v>
@@ -5878,28 +5879,28 @@
         <v>162</v>
       </c>
       <c r="AB55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AK55" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL55">
         <v>4</v>
       </c>
       <c r="AM55" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45806.626333981483</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>99</v>
       </c>
       <c r="W56" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X56" t="s">
         <v>145</v>
@@ -5955,13 +5956,13 @@
         <v>162</v>
       </c>
       <c r="AB56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK56" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL56">
         <v>4</v>
@@ -5970,7 +5971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45806.62943184028</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>100</v>
       </c>
       <c r="W57" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X57" t="s">
         <v>144</v>
@@ -6020,37 +6021,37 @@
         <v>162</v>
       </c>
       <c r="AB57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO57" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ57" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45806.635006053242</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>125</v>
       </c>
       <c r="W58" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X58" t="s">
         <v>144</v>
@@ -6097,40 +6098,40 @@
         <v>162</v>
       </c>
       <c r="AB58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM58" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO58" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AQ58" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45806.723986828707</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>126</v>
       </c>
       <c r="W59" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X59" t="s">
         <v>144</v>
@@ -6177,40 +6178,40 @@
         <v>162</v>
       </c>
       <c r="AB59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM59" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN59" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ59" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45807.017637557867</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>103</v>
       </c>
       <c r="W60" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X60" t="s">
         <v>144</v>
@@ -6260,43 +6261,43 @@
         <v>158</v>
       </c>
       <c r="AA60" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AN60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO60" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP60" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45807.330862164352</v>
       </c>
@@ -6331,7 +6332,7 @@
         <v>100</v>
       </c>
       <c r="W61" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X61" t="s">
         <v>144</v>
@@ -6346,40 +6347,40 @@
         <v>162</v>
       </c>
       <c r="AB61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AK61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL61">
         <v>3</v>
       </c>
       <c r="AM61" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN61" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ61" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45807.391382453701</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>99</v>
       </c>
       <c r="W62" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X62" t="s">
         <v>145</v>
@@ -6429,16 +6430,16 @@
         <v>162</v>
       </c>
       <c r="AB62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AK62" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AL62">
         <v>4</v>
@@ -6447,7 +6448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45807.396517499998</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>98</v>
       </c>
       <c r="W63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X63" t="s">
         <v>144</v>
@@ -6494,37 +6495,37 @@
         <v>162</v>
       </c>
       <c r="AB63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP63" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AQ63" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR63">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45807.413250983787</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>107</v>
       </c>
       <c r="W64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X64" t="s">
         <v>144</v>
@@ -6571,43 +6572,43 @@
         <v>162</v>
       </c>
       <c r="AB64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC64" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE64" t="s">
         <v>166</v>
       </c>
-      <c r="AE64" t="s">
-        <v>168</v>
-      </c>
       <c r="AF64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH64" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AM64" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO64" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP64" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ64" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45807.559003437498</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>127</v>
       </c>
       <c r="W65" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X65" t="s">
         <v>146</v>
@@ -6657,25 +6658,25 @@
         <v>162</v>
       </c>
       <c r="AB65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL65">
         <v>3</v>
       </c>
       <c r="AM65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AR65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45807.600929456021</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>128</v>
       </c>
       <c r="W66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X66" t="s">
         <v>145</v>
@@ -6725,13 +6726,13 @@
         <v>162</v>
       </c>
       <c r="AB66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AL66">
         <v>1</v>
@@ -6740,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45807.657051620372</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>98</v>
       </c>
       <c r="W67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X67" t="s">
         <v>145</v>
@@ -6790,13 +6791,13 @@
         <v>162</v>
       </c>
       <c r="AB67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK67" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AL67">
         <v>3</v>
@@ -6805,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45807.713392268517</v>
       </c>
@@ -6837,7 +6838,7 @@
         <v>102</v>
       </c>
       <c r="W68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X68" t="s">
         <v>148</v>
@@ -6852,40 +6853,40 @@
         <v>162</v>
       </c>
       <c r="AB68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC68" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE68" t="s">
         <v>166</v>
       </c>
-      <c r="AE68" t="s">
-        <v>168</v>
-      </c>
       <c r="AF68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM68" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN68" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO68" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45807.861401261573</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>99</v>
       </c>
       <c r="W69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X69" t="s">
         <v>145</v>
@@ -6935,13 +6936,13 @@
         <v>162</v>
       </c>
       <c r="AB69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL69">
         <v>4</v>
@@ -6950,7 +6951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45808.347418449077</v>
       </c>
@@ -6985,7 +6986,7 @@
         <v>106</v>
       </c>
       <c r="W70" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X70" t="s">
         <v>148</v>
@@ -7000,43 +7001,43 @@
         <v>162</v>
       </c>
       <c r="AB70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AM70" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AN70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP70" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ70" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45808.359268773151</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>106</v>
       </c>
       <c r="W71" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X71" t="s">
         <v>144</v>
@@ -7083,46 +7084,46 @@
         <v>158</v>
       </c>
       <c r="AA71" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB71" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AH71" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM71" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AN71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO71" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP71" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AQ71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45808.405835555553</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>99</v>
       </c>
       <c r="W72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X72" t="s">
         <v>145</v>
@@ -7172,16 +7173,16 @@
         <v>162</v>
       </c>
       <c r="AB72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH72" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AK72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AL72">
         <v>4</v>
@@ -7190,7 +7191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45808.448864618047</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>106</v>
       </c>
       <c r="W73" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X73" t="s">
         <v>144</v>
@@ -7237,37 +7238,37 @@
         <v>162</v>
       </c>
       <c r="AB73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO73" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP73" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ73" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45808.542882951391</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>129</v>
       </c>
       <c r="W74" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X74" t="s">
         <v>145</v>
@@ -7317,13 +7318,13 @@
         <v>162</v>
       </c>
       <c r="AB74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL74">
         <v>3</v>
@@ -7332,7 +7333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45808.690095543992</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>100</v>
       </c>
       <c r="W75" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X75" t="s">
         <v>144</v>
@@ -7379,40 +7380,40 @@
         <v>162</v>
       </c>
       <c r="AB75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC75" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP75" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45809.623305590278</v>
       </c>
@@ -7447,7 +7448,7 @@
         <v>98</v>
       </c>
       <c r="W76" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X76" t="s">
         <v>145</v>
@@ -7462,13 +7463,13 @@
         <v>162</v>
       </c>
       <c r="AB76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK76" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AL76">
         <v>3</v>
@@ -7477,7 +7478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45810.587880439823</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>107</v>
       </c>
       <c r="W77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -7524,40 +7525,40 @@
         <v>162</v>
       </c>
       <c r="AB77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG77" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AN77" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP77" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AQ77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45810.685158379631</v>
       </c>
@@ -7604,16 +7605,16 @@
         <v>162</v>
       </c>
       <c r="AB78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AJ78" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AK78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL78">
         <v>4</v>
@@ -7622,7 +7623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45811.398555717591</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>99</v>
       </c>
       <c r="W79" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X79" t="s">
         <v>144</v>
@@ -7672,43 +7673,43 @@
         <v>162</v>
       </c>
       <c r="AB79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AH79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM79" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AN79" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO79" t="s">
         <v>334</v>
       </c>
-      <c r="AO79" t="s">
-        <v>336</v>
-      </c>
       <c r="AP79" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AQ79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45811.401837314806</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>130</v>
       </c>
       <c r="W80" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X80" t="s">
         <v>144</v>
@@ -7758,40 +7759,40 @@
         <v>162</v>
       </c>
       <c r="AB80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF80" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM80" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN80" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP80" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ80" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR80">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45811.53598119213</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>107</v>
       </c>
       <c r="W81" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X81" t="s">
         <v>144</v>
@@ -7847,40 +7848,40 @@
         <v>162</v>
       </c>
       <c r="AB81" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AM81" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN81" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO81" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP81" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AQ81" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45811.613637129631</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>104</v>
       </c>
       <c r="W82" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X82" t="s">
         <v>144</v>
@@ -7927,46 +7928,46 @@
         <v>157</v>
       </c>
       <c r="AA82" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB82" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM82" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AN82" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP82" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AQ82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45811.618512997688</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>98</v>
       </c>
       <c r="W83" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X83" t="s">
         <v>144</v>
@@ -8019,37 +8020,37 @@
         <v>162</v>
       </c>
       <c r="AB83" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AL83">
         <v>3</v>
       </c>
       <c r="AM83" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AN83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP83" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AQ83" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR83">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45811.92026215278</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>131</v>
       </c>
       <c r="W84" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X84" t="s">
         <v>144</v>
@@ -8099,40 +8100,40 @@
         <v>162</v>
       </c>
       <c r="AB84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC84" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE84" t="s">
         <v>166</v>
       </c>
-      <c r="AE84" t="s">
-        <v>168</v>
-      </c>
       <c r="AF84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG84" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO84" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP84" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ84" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45812.466701122677</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>132</v>
       </c>
       <c r="W85" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X85" t="s">
         <v>144</v>
@@ -8179,40 +8180,40 @@
         <v>162</v>
       </c>
       <c r="AB85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE85" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AF85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM85" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AN85" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO85" t="s">
         <v>334</v>
       </c>
-      <c r="AO85" t="s">
-        <v>336</v>
-      </c>
       <c r="AP85" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AQ85" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR85">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45812.46740292824</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>133</v>
       </c>
       <c r="W86" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X86" t="s">
         <v>148</v>
@@ -8259,40 +8260,40 @@
         <v>162</v>
       </c>
       <c r="AB86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE86" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF86" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AN86" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO86" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ86" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45813.872885902783</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>134</v>
       </c>
       <c r="W87" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X87" t="s">
         <v>144</v>
@@ -8339,37 +8340,37 @@
         <v>162</v>
       </c>
       <c r="AB87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN87" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO87" t="s">
         <v>334</v>
       </c>
-      <c r="AO87" t="s">
-        <v>336</v>
-      </c>
       <c r="AP87" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AQ87" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR87">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45814.509593449067</v>
       </c>
@@ -8404,7 +8405,7 @@
         <v>106</v>
       </c>
       <c r="W88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X88" t="s">
         <v>146</v>
@@ -8419,25 +8420,25 @@
         <v>162</v>
       </c>
       <c r="AB88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AL88">
         <v>2</v>
       </c>
       <c r="AM88" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AR88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45816.88691079861</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>98</v>
       </c>
       <c r="W89" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X89" t="s">
         <v>145</v>
@@ -8487,16 +8488,16 @@
         <v>162</v>
       </c>
       <c r="AB89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AK89" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AL89">
         <v>1</v>
@@ -8505,7 +8506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45817.398458900461</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>107</v>
       </c>
       <c r="W90" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X90" t="s">
         <v>145</v>
@@ -8555,13 +8556,13 @@
         <v>162</v>
       </c>
       <c r="AB90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK90" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL90">
         <v>3</v>
@@ -8570,7 +8571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45817.416709120371</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>135</v>
       </c>
       <c r="W91" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X91" t="s">
         <v>146</v>
@@ -8620,25 +8621,25 @@
         <v>162</v>
       </c>
       <c r="AB91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK91" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL91">
         <v>4</v>
       </c>
       <c r="AM91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45818.318863159722</v>
       </c>
@@ -8673,7 +8674,7 @@
         <v>98</v>
       </c>
       <c r="W92" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X92" t="s">
         <v>145</v>
@@ -8688,13 +8689,13 @@
         <v>162</v>
       </c>
       <c r="AB92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL92">
         <v>3</v>
@@ -8703,7 +8704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45818.325094861109</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>98</v>
       </c>
       <c r="W93" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X93" t="s">
         <v>144</v>
@@ -8750,37 +8751,37 @@
         <v>162</v>
       </c>
       <c r="AB93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC93" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AL93">
         <v>2</v>
       </c>
       <c r="AM93" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO93" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP93" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AQ93" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45818.338627129633</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>99</v>
       </c>
       <c r="W94" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X94" t="s">
         <v>146</v>
@@ -8830,25 +8831,25 @@
         <v>162</v>
       </c>
       <c r="AB94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK94" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AL94">
         <v>3</v>
       </c>
       <c r="AM94" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AR94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45818.364386041663</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>117</v>
       </c>
       <c r="W95" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X95" t="s">
         <v>144</v>
@@ -8898,43 +8899,43 @@
         <v>162</v>
       </c>
       <c r="AB95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF95" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AH95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AM95" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO95" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP95" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45819.461226331019</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>98</v>
       </c>
       <c r="W96" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X96" t="s">
         <v>145</v>
@@ -8984,13 +8985,13 @@
         <v>162</v>
       </c>
       <c r="AB96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL96">
         <v>2</v>
@@ -8999,7 +9000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45819.637451655093</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>98</v>
       </c>
       <c r="W97" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X97" t="s">
         <v>145</v>
@@ -9046,13 +9047,13 @@
         <v>162</v>
       </c>
       <c r="AB97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC97" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK97" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL97">
         <v>3</v>
@@ -9061,7 +9062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45820.536212800929</v>
       </c>
@@ -9096,7 +9097,7 @@
         <v>136</v>
       </c>
       <c r="W98" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X98" t="s">
         <v>145</v>
@@ -9111,13 +9112,13 @@
         <v>162</v>
       </c>
       <c r="AB98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK98" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL98">
         <v>2</v>
@@ -9126,7 +9127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45820.537087002318</v>
       </c>
@@ -9173,40 +9174,40 @@
         <v>162</v>
       </c>
       <c r="AB99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC99" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF99" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AM99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN99" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO99" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP99" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AQ99" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45820.540335763893</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>103</v>
       </c>
       <c r="W100" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X100" t="s">
         <v>144</v>
@@ -9256,40 +9257,40 @@
         <v>162</v>
       </c>
       <c r="AB100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AK100" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AL100">
         <v>3</v>
       </c>
       <c r="AM100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AN100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP100" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ100" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45820.550402731482</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>102</v>
       </c>
       <c r="W101" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X101" t="s">
         <v>148</v>
@@ -9336,43 +9337,43 @@
         <v>161</v>
       </c>
       <c r="AA101" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AK101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL101">
         <v>2</v>
       </c>
       <c r="AM101" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AN101" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO101" t="s">
         <v>334</v>
       </c>
-      <c r="AO101" t="s">
-        <v>336</v>
-      </c>
       <c r="AP101" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AQ101" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45820.55679234954</v>
       </c>
@@ -9407,7 +9408,7 @@
         <v>103</v>
       </c>
       <c r="W102" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X102" t="s">
         <v>144</v>
@@ -9422,40 +9423,40 @@
         <v>162</v>
       </c>
       <c r="AB102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM102" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN102" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO102" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP102" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AQ102" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR102">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45820.560375474539</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>99</v>
       </c>
       <c r="W103" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X103" t="s">
         <v>145</v>
@@ -9505,16 +9506,16 @@
         <v>162</v>
       </c>
       <c r="AB103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH103" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AK103" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AL103">
         <v>1</v>
@@ -9523,7 +9524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45820.568070185182</v>
       </c>
@@ -9558,7 +9559,7 @@
         <v>137</v>
       </c>
       <c r="W104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X104" t="s">
         <v>144</v>
@@ -9570,43 +9571,43 @@
         <v>158</v>
       </c>
       <c r="AA104" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB104" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC104" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE104" t="s">
         <v>166</v>
       </c>
-      <c r="AE104" t="s">
-        <v>168</v>
-      </c>
       <c r="AF104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG104" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM104" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AN104" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO104" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP104" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ104" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45820.574043252323</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>116</v>
       </c>
       <c r="W105" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X105" t="s">
         <v>144</v>
@@ -9656,40 +9657,40 @@
         <v>162</v>
       </c>
       <c r="AB105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AK105" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL105">
         <v>4</v>
       </c>
       <c r="AM105" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN105" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>334</v>
+      </c>
+      <c r="AP105" t="s">
         <v>335</v>
       </c>
-      <c r="AO105" t="s">
-        <v>336</v>
-      </c>
-      <c r="AP105" t="s">
-        <v>337</v>
-      </c>
       <c r="AQ105" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR105">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45820.576127210647</v>
       </c>
@@ -9721,7 +9722,7 @@
         <v>124</v>
       </c>
       <c r="W106" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X106" t="s">
         <v>144</v>
@@ -9736,40 +9737,40 @@
         <v>162</v>
       </c>
       <c r="AB106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC106" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE106" t="s">
         <v>166</v>
       </c>
-      <c r="AE106" t="s">
-        <v>168</v>
-      </c>
       <c r="AF106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG106" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM106" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN106" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO106" t="s">
         <v>334</v>
       </c>
-      <c r="AO106" t="s">
-        <v>336</v>
-      </c>
       <c r="AP106" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ106" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45820.577494409721</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>98</v>
       </c>
       <c r="W107" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X107" t="s">
         <v>144</v>
@@ -9816,40 +9817,40 @@
         <v>162</v>
       </c>
       <c r="AB107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG107" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM107" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN107" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO107" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP107" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ107" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45820.578042407411</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>98</v>
       </c>
       <c r="W108" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X108" t="s">
         <v>144</v>
@@ -9893,43 +9894,43 @@
         <v>157</v>
       </c>
       <c r="AA108" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC108" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH108" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="AM108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN108" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO108" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP108" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ108" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR108">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45820.581439641202</v>
       </c>
@@ -9964,7 +9965,7 @@
         <v>100</v>
       </c>
       <c r="W109" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X109" t="s">
         <v>146</v>
@@ -9979,25 +9980,25 @@
         <v>162</v>
       </c>
       <c r="AB109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC109" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK109" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL109">
         <v>4</v>
       </c>
       <c r="AM109" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AR109">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45820.597224456018</v>
       </c>
@@ -10032,7 +10033,7 @@
         <v>138</v>
       </c>
       <c r="W110" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X110" t="s">
         <v>144</v>
@@ -10047,43 +10048,43 @@
         <v>162</v>
       </c>
       <c r="AB110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC110" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE110" t="s">
         <v>166</v>
       </c>
-      <c r="AE110" t="s">
-        <v>168</v>
-      </c>
       <c r="AF110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH110" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM110" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AN110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP110" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AQ110" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45820.607533043978</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>139</v>
       </c>
       <c r="W111" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X111" t="s">
         <v>144</v>
@@ -10133,43 +10134,43 @@
         <v>162</v>
       </c>
       <c r="AB111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC111" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE111" t="s">
         <v>166</v>
       </c>
-      <c r="AE111" t="s">
-        <v>168</v>
-      </c>
       <c r="AF111" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH111" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AM111" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN111" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO111" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ111" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45820.608298136583</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>118</v>
       </c>
       <c r="W112" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X112" t="s">
         <v>150</v>
@@ -10216,19 +10217,19 @@
         <v>162</v>
       </c>
       <c r="AB112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AJ112" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR112">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45820.620888460653</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>140</v>
       </c>
       <c r="W113" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X113" t="s">
         <v>144</v>
@@ -10275,40 +10276,40 @@
         <v>162</v>
       </c>
       <c r="AB113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE113" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF113" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM113" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO113" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP113" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ113" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR113">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45820.620918298613</v>
       </c>
@@ -10343,7 +10344,7 @@
         <v>123</v>
       </c>
       <c r="W114" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X114" t="s">
         <v>144</v>
@@ -10358,37 +10359,37 @@
         <v>162</v>
       </c>
       <c r="AB114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK114" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL114">
         <v>4</v>
       </c>
       <c r="AM114" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AN114" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO114" t="s">
         <v>334</v>
       </c>
-      <c r="AO114" t="s">
-        <v>336</v>
-      </c>
       <c r="AP114" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AQ114" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR114">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45820.621696111113</v>
       </c>
@@ -10420,7 +10421,7 @@
         <v>103</v>
       </c>
       <c r="W115" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X115" t="s">
         <v>146</v>
@@ -10435,28 +10436,28 @@
         <v>162</v>
       </c>
       <c r="AB115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH115" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AK115" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL115">
         <v>2</v>
       </c>
       <c r="AM115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AR115">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45820.69427803241</v>
       </c>
@@ -10488,7 +10489,7 @@
         <v>103</v>
       </c>
       <c r="W116" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X116" t="s">
         <v>144</v>
@@ -10503,40 +10504,40 @@
         <v>162</v>
       </c>
       <c r="AB116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE116" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF116" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AM116" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AN116" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO116" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP116" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AQ116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR116">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45820.746842002307</v>
       </c>
@@ -10568,7 +10569,7 @@
         <v>124</v>
       </c>
       <c r="W117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X117" t="s">
         <v>144</v>
@@ -10583,40 +10584,40 @@
         <v>162</v>
       </c>
       <c r="AB117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC117" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE117" t="s">
         <v>166</v>
       </c>
-      <c r="AE117" t="s">
-        <v>168</v>
-      </c>
       <c r="AF117" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM117" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN117" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO117" t="s">
         <v>334</v>
       </c>
-      <c r="AO117" t="s">
-        <v>336</v>
-      </c>
       <c r="AP117" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR117">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45820.760305856478</v>
       </c>
@@ -10651,7 +10652,7 @@
         <v>122</v>
       </c>
       <c r="W118" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X118" t="s">
         <v>145</v>
@@ -10666,13 +10667,13 @@
         <v>162</v>
       </c>
       <c r="AB118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK118" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL118">
         <v>1</v>
@@ -10681,7 +10682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45820.881843993047</v>
       </c>
@@ -10716,7 +10717,7 @@
         <v>98</v>
       </c>
       <c r="W119" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X119" t="s">
         <v>144</v>
@@ -10731,40 +10732,40 @@
         <v>162</v>
       </c>
       <c r="AB119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE119" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF119" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM119" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AN119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO119" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP119" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ119" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45821.009940960648</v>
       </c>
@@ -10802,7 +10803,7 @@
         <v>100</v>
       </c>
       <c r="W120" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X120" t="s">
         <v>144</v>
@@ -10817,43 +10818,43 @@
         <v>162</v>
       </c>
       <c r="AB120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE120" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF120" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH120" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AM120" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AN120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO120" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP120" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AQ120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR120">
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45821.349116192127</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v>98</v>
       </c>
       <c r="W121" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X121" t="s">
         <v>146</v>
@@ -10900,25 +10901,25 @@
         <v>162</v>
       </c>
       <c r="AB121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK121" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL121">
         <v>4</v>
       </c>
       <c r="AM121" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AR121">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45821.35731146991</v>
       </c>
@@ -10953,7 +10954,7 @@
         <v>141</v>
       </c>
       <c r="W122" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X122" t="s">
         <v>146</v>
@@ -10968,28 +10969,28 @@
         <v>162</v>
       </c>
       <c r="AB122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH122" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AK122" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AL122">
         <v>3</v>
       </c>
       <c r="AM122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AR122">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45821.488193124998</v>
       </c>
@@ -11021,7 +11022,7 @@
         <v>100</v>
       </c>
       <c r="W123" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X123" t="s">
         <v>144</v>
@@ -11036,40 +11037,40 @@
         <v>162</v>
       </c>
       <c r="AB123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC123" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH123" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AK123" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AL123">
         <v>4</v>
       </c>
       <c r="AM123" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN123" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO123" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP123" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AQ123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45821.900767222221</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>100</v>
       </c>
       <c r="W124" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X124" t="s">
         <v>144</v>
@@ -11116,43 +11117,43 @@
         <v>158</v>
       </c>
       <c r="AA124" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE124" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF124" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG124" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM124" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN124" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO124" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP124" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ124" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45822.338735902777</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>99</v>
       </c>
       <c r="W125" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X125" t="s">
         <v>145</v>
@@ -11205,16 +11206,16 @@
         <v>162</v>
       </c>
       <c r="AB125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC125" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH125" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AK125" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL125">
         <v>2</v>
@@ -11223,7 +11224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45822.338738587961</v>
       </c>
@@ -11261,7 +11262,7 @@
         <v>99</v>
       </c>
       <c r="W126" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X126" t="s">
         <v>145</v>
@@ -11276,16 +11277,16 @@
         <v>162</v>
       </c>
       <c r="AB126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC126" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AK126" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL126">
         <v>2</v>
@@ -11294,7 +11295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45822.634392604174</v>
       </c>
@@ -11326,7 +11327,7 @@
         <v>106</v>
       </c>
       <c r="W127" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X127" t="s">
         <v>144</v>
@@ -11341,40 +11342,40 @@
         <v>162</v>
       </c>
       <c r="AB127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE127" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF127" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG127" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM127" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO127" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP127" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AQ127" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR127">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45822.634933125002</v>
       </c>
@@ -11409,7 +11410,7 @@
         <v>120</v>
       </c>
       <c r="W128" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X128" t="s">
         <v>144</v>
@@ -11421,43 +11422,43 @@
         <v>157</v>
       </c>
       <c r="AA128" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC128" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE128" t="s">
         <v>166</v>
       </c>
-      <c r="AE128" t="s">
-        <v>168</v>
-      </c>
       <c r="AF128" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG128" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AM128" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN128" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO128" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AP128" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AQ128" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AR128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45822.801703865742</v>
       </c>
@@ -11492,7 +11493,7 @@
         <v>99</v>
       </c>
       <c r="W129" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X129" t="s">
         <v>145</v>
@@ -11504,16 +11505,16 @@
         <v>158</v>
       </c>
       <c r="AA129" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AB129" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="AC129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AK129" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL129">
         <v>1</v>
@@ -11522,7 +11523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45822.965425601848</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>111</v>
       </c>
       <c r="W130" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X130" t="s">
         <v>145</v>
@@ -11572,16 +11573,16 @@
         <v>162</v>
       </c>
       <c r="AB130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC130" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH130" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AK130" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AL130">
         <v>3</v>
